--- a/public/Data/non-teaching.xlsx
+++ b/public/Data/non-teaching.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28429"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28526"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Kaushik\OneDrive\Desktop\department\CSE\public\Data\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Kaushik\OneDrive\Desktop\CVR\CVR-CSE\public\Data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{2D2229B2-8879-4B44-8C66-8A8390F8FAE2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4E6EDFC0-9C67-401C-94AF-17205F21581C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{78634B72-DAAC-403F-A2A1-7EDC8EC2B134}"/>
   </bookViews>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="97" uniqueCount="75">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="121" uniqueCount="82">
   <si>
     <t>Sl. No.</t>
   </si>
@@ -261,6 +261,27 @@
   </si>
   <si>
     <t>23rd Jan 2025</t>
+  </si>
+  <si>
+    <t>B.DEVIKA</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Ms. K. Aunuradha </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Ms. V. Srilatha        </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Ms.A.Swathi </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Ms.Achana Maheshwari </t>
+  </si>
+  <si>
+    <t>Ms.T.Naga Sravani</t>
+  </si>
+  <si>
+    <t>Image</t>
   </si>
 </sst>
 </file>
@@ -750,6 +771,150 @@
       <font>
         <condense val="0"/>
         <extend val="0"/>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <condense val="0"/>
+        <extend val="0"/>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <condense val="0"/>
+        <extend val="0"/>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <condense val="0"/>
+        <extend val="0"/>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <condense val="0"/>
+        <extend val="0"/>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <condense val="0"/>
+        <extend val="0"/>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <condense val="0"/>
+        <extend val="0"/>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <condense val="0"/>
+        <extend val="0"/>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <condense val="0"/>
+        <extend val="0"/>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <condense val="0"/>
+        <extend val="0"/>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <condense val="0"/>
+        <extend val="0"/>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <condense val="0"/>
+        <extend val="0"/>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <condense val="0"/>
+        <extend val="0"/>
         <color indexed="20"/>
       </font>
       <fill>
@@ -810,6 +975,54 @@
       <font>
         <condense val="0"/>
         <extend val="0"/>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <condense val="0"/>
+        <extend val="0"/>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <condense val="0"/>
+        <extend val="0"/>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <condense val="0"/>
+        <extend val="0"/>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <condense val="0"/>
+        <extend val="0"/>
         <color indexed="20"/>
       </font>
       <fill>
@@ -870,6 +1083,630 @@
       <font>
         <condense val="0"/>
         <extend val="0"/>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <condense val="0"/>
+        <extend val="0"/>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <condense val="0"/>
+        <extend val="0"/>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <condense val="0"/>
+        <extend val="0"/>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <condense val="0"/>
+        <extend val="0"/>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <condense val="0"/>
+        <extend val="0"/>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <condense val="0"/>
+        <extend val="0"/>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <condense val="0"/>
+        <extend val="0"/>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <condense val="0"/>
+        <extend val="0"/>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <condense val="0"/>
+        <extend val="0"/>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <condense val="0"/>
+        <extend val="0"/>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <condense val="0"/>
+        <extend val="0"/>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <condense val="0"/>
+        <extend val="0"/>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <condense val="0"/>
+        <extend val="0"/>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <condense val="0"/>
+        <extend val="0"/>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <condense val="0"/>
+        <extend val="0"/>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <condense val="0"/>
+        <extend val="0"/>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <condense val="0"/>
+        <extend val="0"/>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <condense val="0"/>
+        <extend val="0"/>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <condense val="0"/>
+        <extend val="0"/>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <condense val="0"/>
+        <extend val="0"/>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <condense val="0"/>
+        <extend val="0"/>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <condense val="0"/>
+        <extend val="0"/>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <condense val="0"/>
+        <extend val="0"/>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <condense val="0"/>
+        <extend val="0"/>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <condense val="0"/>
+        <extend val="0"/>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <condense val="0"/>
+        <extend val="0"/>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <condense val="0"/>
+        <extend val="0"/>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <condense val="0"/>
+        <extend val="0"/>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <condense val="0"/>
+        <extend val="0"/>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <condense val="0"/>
+        <extend val="0"/>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <condense val="0"/>
+        <extend val="0"/>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <condense val="0"/>
+        <extend val="0"/>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <condense val="0"/>
+        <extend val="0"/>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <condense val="0"/>
+        <extend val="0"/>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <condense val="0"/>
+        <extend val="0"/>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <condense val="0"/>
+        <extend val="0"/>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <condense val="0"/>
+        <extend val="0"/>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <condense val="0"/>
+        <extend val="0"/>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <condense val="0"/>
+        <extend val="0"/>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <condense val="0"/>
+        <extend val="0"/>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <condense val="0"/>
+        <extend val="0"/>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <condense val="0"/>
+        <extend val="0"/>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <condense val="0"/>
+        <extend val="0"/>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <condense val="0"/>
+        <extend val="0"/>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <condense val="0"/>
+        <extend val="0"/>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <condense val="0"/>
+        <extend val="0"/>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <condense val="0"/>
+        <extend val="0"/>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <condense val="0"/>
+        <extend val="0"/>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <condense val="0"/>
+        <extend val="0"/>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <condense val="0"/>
+        <extend val="0"/>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <condense val="0"/>
+        <extend val="0"/>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <condense val="0"/>
+        <extend val="0"/>
         <color indexed="20"/>
       </font>
       <fill>
@@ -882,6 +1719,54 @@
       <font>
         <condense val="0"/>
         <extend val="0"/>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <condense val="0"/>
+        <extend val="0"/>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <condense val="0"/>
+        <extend val="0"/>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <condense val="0"/>
+        <extend val="0"/>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <condense val="0"/>
+        <extend val="0"/>
         <color indexed="20"/>
       </font>
       <fill>
@@ -930,18 +1815,6 @@
       <font>
         <condense val="0"/>
         <extend val="0"/>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <condense val="0"/>
-        <extend val="0"/>
         <color indexed="20"/>
       </font>
       <fill>
@@ -1002,6 +1875,42 @@
       <font>
         <condense val="0"/>
         <extend val="0"/>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <condense val="0"/>
+        <extend val="0"/>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <condense val="0"/>
+        <extend val="0"/>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <condense val="0"/>
+        <extend val="0"/>
         <color indexed="20"/>
       </font>
       <fill>
@@ -1122,911 +2031,23 @@
       <font>
         <condense val="0"/>
         <extend val="0"/>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <condense val="0"/>
+        <extend val="0"/>
         <color indexed="20"/>
       </font>
       <fill>
         <patternFill>
           <bgColor indexed="45"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <condense val="0"/>
-        <extend val="0"/>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <condense val="0"/>
-        <extend val="0"/>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <condense val="0"/>
-        <extend val="0"/>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <condense val="0"/>
-        <extend val="0"/>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <condense val="0"/>
-        <extend val="0"/>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <condense val="0"/>
-        <extend val="0"/>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <condense val="0"/>
-        <extend val="0"/>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <condense val="0"/>
-        <extend val="0"/>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <condense val="0"/>
-        <extend val="0"/>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <condense val="0"/>
-        <extend val="0"/>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <condense val="0"/>
-        <extend val="0"/>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <condense val="0"/>
-        <extend val="0"/>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <condense val="0"/>
-        <extend val="0"/>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <condense val="0"/>
-        <extend val="0"/>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <condense val="0"/>
-        <extend val="0"/>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <condense val="0"/>
-        <extend val="0"/>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <condense val="0"/>
-        <extend val="0"/>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <condense val="0"/>
-        <extend val="0"/>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <condense val="0"/>
-        <extend val="0"/>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <condense val="0"/>
-        <extend val="0"/>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <condense val="0"/>
-        <extend val="0"/>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <condense val="0"/>
-        <extend val="0"/>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <condense val="0"/>
-        <extend val="0"/>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <condense val="0"/>
-        <extend val="0"/>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <condense val="0"/>
-        <extend val="0"/>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <condense val="0"/>
-        <extend val="0"/>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <condense val="0"/>
-        <extend val="0"/>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <condense val="0"/>
-        <extend val="0"/>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <condense val="0"/>
-        <extend val="0"/>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <condense val="0"/>
-        <extend val="0"/>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <condense val="0"/>
-        <extend val="0"/>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <condense val="0"/>
-        <extend val="0"/>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <condense val="0"/>
-        <extend val="0"/>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <condense val="0"/>
-        <extend val="0"/>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <condense val="0"/>
-        <extend val="0"/>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <condense val="0"/>
-        <extend val="0"/>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <condense val="0"/>
-        <extend val="0"/>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <condense val="0"/>
-        <extend val="0"/>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <condense val="0"/>
-        <extend val="0"/>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <condense val="0"/>
-        <extend val="0"/>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <condense val="0"/>
-        <extend val="0"/>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <condense val="0"/>
-        <extend val="0"/>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <condense val="0"/>
-        <extend val="0"/>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <condense val="0"/>
-        <extend val="0"/>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <condense val="0"/>
-        <extend val="0"/>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <condense val="0"/>
-        <extend val="0"/>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <condense val="0"/>
-        <extend val="0"/>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <condense val="0"/>
-        <extend val="0"/>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <condense val="0"/>
-        <extend val="0"/>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <condense val="0"/>
-        <extend val="0"/>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <condense val="0"/>
-        <extend val="0"/>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <condense val="0"/>
-        <extend val="0"/>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <condense val="0"/>
-        <extend val="0"/>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <condense val="0"/>
-        <extend val="0"/>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <condense val="0"/>
-        <extend val="0"/>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <condense val="0"/>
-        <extend val="0"/>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <condense val="0"/>
-        <extend val="0"/>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <condense val="0"/>
-        <extend val="0"/>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <condense val="0"/>
-        <extend val="0"/>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <condense val="0"/>
-        <extend val="0"/>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <condense val="0"/>
-        <extend val="0"/>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <condense val="0"/>
-        <extend val="0"/>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <condense val="0"/>
-        <extend val="0"/>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <condense val="0"/>
-        <extend val="0"/>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <condense val="0"/>
-        <extend val="0"/>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <condense val="0"/>
-        <extend val="0"/>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <condense val="0"/>
-        <extend val="0"/>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <condense val="0"/>
-        <extend val="0"/>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <condense val="0"/>
-        <extend val="0"/>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <condense val="0"/>
-        <extend val="0"/>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <condense val="0"/>
-        <extend val="0"/>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <condense val="0"/>
-        <extend val="0"/>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <condense val="0"/>
-        <extend val="0"/>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <condense val="0"/>
-        <extend val="0"/>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <condense val="0"/>
-        <extend val="0"/>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
         </patternFill>
       </fill>
     </dxf>
@@ -2372,10 +2393,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{866DEEA3-36C1-4E7D-A645-9FE7ADE932DD}">
-  <dimension ref="A1:E36"/>
+  <dimension ref="A1:F36"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A30" sqref="A30:XFD35"/>
+      <selection activeCell="F1" sqref="F1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -2384,9 +2405,10 @@
     <col min="3" max="3" width="31" customWidth="1"/>
     <col min="4" max="4" width="19.88671875" style="13" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="16.44140625" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="26" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:6" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -2402,8 +2424,11 @@
       <c r="E1" s="2" t="s">
         <v>4</v>
       </c>
+      <c r="F1" s="2" t="s">
+        <v>81</v>
+      </c>
     </row>
-    <row r="2" spans="1:5" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:6" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A2" s="2">
         <v>1</v>
       </c>
@@ -2419,8 +2444,11 @@
       <c r="E2" s="5" t="s">
         <v>8</v>
       </c>
+      <c r="F2" s="5" t="s">
+        <v>8</v>
+      </c>
     </row>
-    <row r="3" spans="1:5" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:6" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A3" s="2">
         <v>2</v>
       </c>
@@ -2436,8 +2464,11 @@
       <c r="E3" s="14" t="s">
         <v>12</v>
       </c>
+      <c r="F3" s="14" t="s">
+        <v>10</v>
+      </c>
     </row>
-    <row r="4" spans="1:5" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:6" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A4" s="2">
         <v>3</v>
       </c>
@@ -2453,8 +2484,11 @@
       <c r="E4" s="5" t="s">
         <v>16</v>
       </c>
+      <c r="F4" s="5" t="s">
+        <v>14</v>
+      </c>
     </row>
-    <row r="5" spans="1:5" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:6" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A5" s="2">
         <v>4</v>
       </c>
@@ -2470,8 +2504,11 @@
       <c r="E5" s="5" t="s">
         <v>19</v>
       </c>
+      <c r="F5" s="5" t="s">
+        <v>19</v>
+      </c>
     </row>
-    <row r="6" spans="1:5" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:6" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A6" s="2">
         <v>5</v>
       </c>
@@ -2487,8 +2524,11 @@
       <c r="E6" s="5" t="s">
         <v>22</v>
       </c>
+      <c r="F6" s="5" t="s">
+        <v>77</v>
+      </c>
     </row>
-    <row r="7" spans="1:5" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:6" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A7" s="2">
         <v>6</v>
       </c>
@@ -2504,8 +2544,11 @@
       <c r="E7" s="5" t="s">
         <v>25</v>
       </c>
+      <c r="F7" s="5" t="s">
+        <v>24</v>
+      </c>
     </row>
-    <row r="8" spans="1:5" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:6" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A8" s="2">
         <v>7</v>
       </c>
@@ -2521,8 +2564,11 @@
       <c r="E8" s="5" t="s">
         <v>28</v>
       </c>
+      <c r="F8" s="5" t="s">
+        <v>28</v>
+      </c>
     </row>
-    <row r="9" spans="1:5" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:6" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A9" s="2">
         <v>8</v>
       </c>
@@ -2538,8 +2584,11 @@
       <c r="E9" s="5" t="s">
         <v>31</v>
       </c>
+      <c r="F9" s="5" t="s">
+        <v>31</v>
+      </c>
     </row>
-    <row r="10" spans="1:5" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:6" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A10" s="2">
         <v>9</v>
       </c>
@@ -2555,8 +2604,11 @@
       <c r="E10" s="5" t="s">
         <v>34</v>
       </c>
+      <c r="F10" s="5" t="s">
+        <v>78</v>
+      </c>
     </row>
-    <row r="11" spans="1:5" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:6" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A11" s="2">
         <v>10</v>
       </c>
@@ -2572,8 +2624,11 @@
       <c r="E11" s="5" t="s">
         <v>37</v>
       </c>
+      <c r="F11" s="5" t="s">
+        <v>36</v>
+      </c>
     </row>
-    <row r="12" spans="1:5" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:6" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A12" s="2">
         <v>11</v>
       </c>
@@ -2589,8 +2644,11 @@
       <c r="E12" s="5" t="s">
         <v>40</v>
       </c>
+      <c r="F12" s="5" t="s">
+        <v>39</v>
+      </c>
     </row>
-    <row r="13" spans="1:5" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:6" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A13" s="2">
         <v>12</v>
       </c>
@@ -2606,8 +2664,11 @@
       <c r="E13" s="5" t="s">
         <v>40</v>
       </c>
+      <c r="F13" s="5" t="s">
+        <v>40</v>
+      </c>
     </row>
-    <row r="14" spans="1:5" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:6" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A14" s="2">
         <v>13</v>
       </c>
@@ -2623,8 +2684,11 @@
       <c r="E14" s="5" t="s">
         <v>45</v>
       </c>
+      <c r="F14" s="5" t="s">
+        <v>45</v>
+      </c>
     </row>
-    <row r="15" spans="1:5" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:6" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A15" s="2">
         <v>14</v>
       </c>
@@ -2640,8 +2704,11 @@
       <c r="E15" s="5" t="s">
         <v>48</v>
       </c>
+      <c r="F15" s="5" t="s">
+        <v>47</v>
+      </c>
     </row>
-    <row r="16" spans="1:5" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:6" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A16" s="2">
         <v>15</v>
       </c>
@@ -2657,8 +2724,11 @@
       <c r="E16" s="5" t="s">
         <v>51</v>
       </c>
+      <c r="F16" s="5" t="s">
+        <v>51</v>
+      </c>
     </row>
-    <row r="17" spans="1:5" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:6" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A17" s="2">
         <v>16</v>
       </c>
@@ -2674,8 +2744,11 @@
       <c r="E17" s="5" t="s">
         <v>54</v>
       </c>
+      <c r="F17" s="5" t="s">
+        <v>53</v>
+      </c>
     </row>
-    <row r="18" spans="1:5" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:6" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A18" s="2">
         <v>17</v>
       </c>
@@ -2691,8 +2764,11 @@
       <c r="E18" s="5" t="s">
         <v>57</v>
       </c>
+      <c r="F18" s="5" t="s">
+        <v>57</v>
+      </c>
     </row>
-    <row r="19" spans="1:5" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:6" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A19" s="2">
         <v>18</v>
       </c>
@@ -2708,8 +2784,11 @@
       <c r="E19" s="5" t="s">
         <v>60</v>
       </c>
+      <c r="F19" s="5" t="s">
+        <v>79</v>
+      </c>
     </row>
-    <row r="20" spans="1:5" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:6" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A20" s="2">
         <v>19</v>
       </c>
@@ -2725,8 +2804,11 @@
       <c r="E20" s="5" t="s">
         <v>63</v>
       </c>
+      <c r="F20" s="5" t="s">
+        <v>63</v>
+      </c>
     </row>
-    <row r="21" spans="1:5" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:6" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A21" s="2">
         <v>20</v>
       </c>
@@ -2742,8 +2824,11 @@
       <c r="E21" s="5" t="s">
         <v>66</v>
       </c>
+      <c r="F21" s="5" t="s">
+        <v>75</v>
+      </c>
     </row>
-    <row r="22" spans="1:5" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:6" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A22" s="2">
         <v>21</v>
       </c>
@@ -2759,8 +2844,11 @@
       <c r="E22" s="5" t="s">
         <v>66</v>
       </c>
+      <c r="F22" s="5" t="s">
+        <v>68</v>
+      </c>
     </row>
-    <row r="23" spans="1:5" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:6" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A23" s="2">
         <v>22</v>
       </c>
@@ -2776,8 +2864,11 @@
       <c r="E23" s="5" t="s">
         <v>71</v>
       </c>
+      <c r="F23" s="5" t="s">
+        <v>76</v>
+      </c>
     </row>
-    <row r="24" spans="1:5" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:6" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A24" s="2">
         <v>23</v>
       </c>
@@ -2793,186 +2884,190 @@
       <c r="E24" s="5" t="s">
         <v>74</v>
       </c>
+      <c r="F24" s="5" t="s">
+        <v>80</v>
+      </c>
     </row>
-    <row r="36" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="36" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A36" s="11"/>
       <c r="B36" s="11"/>
       <c r="C36" s="11"/>
       <c r="D36" s="12"/>
       <c r="E36" s="11"/>
+      <c r="F36" s="11"/>
     </row>
   </sheetData>
-  <conditionalFormatting sqref="B4">
-    <cfRule type="duplicateValues" dxfId="136" priority="140" stopIfTrue="1"/>
-    <cfRule type="duplicateValues" dxfId="135" priority="141" stopIfTrue="1"/>
-    <cfRule type="duplicateValues" dxfId="134" priority="142" stopIfTrue="1"/>
-    <cfRule type="duplicateValues" dxfId="133" priority="143" stopIfTrue="1"/>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="B5">
-    <cfRule type="duplicateValues" dxfId="132" priority="136" stopIfTrue="1"/>
-    <cfRule type="duplicateValues" dxfId="131" priority="137" stopIfTrue="1"/>
-    <cfRule type="duplicateValues" dxfId="130" priority="138" stopIfTrue="1"/>
-    <cfRule type="duplicateValues" dxfId="129" priority="139" stopIfTrue="1"/>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="B6">
-    <cfRule type="duplicateValues" dxfId="128" priority="132" stopIfTrue="1"/>
-    <cfRule type="duplicateValues" dxfId="127" priority="133" stopIfTrue="1"/>
-    <cfRule type="duplicateValues" dxfId="126" priority="134" stopIfTrue="1"/>
-    <cfRule type="duplicateValues" dxfId="125" priority="135" stopIfTrue="1"/>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="B7">
-    <cfRule type="duplicateValues" dxfId="124" priority="37" stopIfTrue="1"/>
-    <cfRule type="duplicateValues" dxfId="123" priority="38" stopIfTrue="1"/>
-    <cfRule type="duplicateValues" dxfId="122" priority="39" stopIfTrue="1"/>
-    <cfRule type="duplicateValues" dxfId="121" priority="40" stopIfTrue="1"/>
-    <cfRule type="duplicateValues" dxfId="120" priority="100" stopIfTrue="1"/>
-    <cfRule type="duplicateValues" dxfId="119" priority="101" stopIfTrue="1"/>
-    <cfRule type="duplicateValues" dxfId="118" priority="102" stopIfTrue="1"/>
-    <cfRule type="duplicateValues" dxfId="117" priority="103" stopIfTrue="1"/>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="B8">
-    <cfRule type="duplicateValues" dxfId="116" priority="32" stopIfTrue="1"/>
-    <cfRule type="duplicateValues" dxfId="115" priority="33" stopIfTrue="1"/>
-    <cfRule type="duplicateValues" dxfId="114" priority="34" stopIfTrue="1"/>
-    <cfRule type="duplicateValues" dxfId="113" priority="35" stopIfTrue="1"/>
-    <cfRule type="duplicateValues" dxfId="112" priority="96" stopIfTrue="1"/>
-    <cfRule type="duplicateValues" dxfId="111" priority="97" stopIfTrue="1"/>
-    <cfRule type="duplicateValues" dxfId="110" priority="98" stopIfTrue="1"/>
-    <cfRule type="duplicateValues" dxfId="109" priority="99" stopIfTrue="1"/>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="B9">
-    <cfRule type="duplicateValues" dxfId="108" priority="128" stopIfTrue="1"/>
-    <cfRule type="duplicateValues" dxfId="107" priority="129" stopIfTrue="1"/>
-    <cfRule type="duplicateValues" dxfId="106" priority="130" stopIfTrue="1"/>
-    <cfRule type="duplicateValues" dxfId="105" priority="131" stopIfTrue="1"/>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="B10">
-    <cfRule type="duplicateValues" dxfId="104" priority="124" stopIfTrue="1"/>
-    <cfRule type="duplicateValues" dxfId="103" priority="125" stopIfTrue="1"/>
-    <cfRule type="duplicateValues" dxfId="102" priority="126" stopIfTrue="1"/>
-    <cfRule type="duplicateValues" dxfId="101" priority="127" stopIfTrue="1"/>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="B11">
-    <cfRule type="duplicateValues" dxfId="100" priority="120" stopIfTrue="1"/>
-    <cfRule type="duplicateValues" dxfId="99" priority="121" stopIfTrue="1"/>
-    <cfRule type="duplicateValues" dxfId="98" priority="122" stopIfTrue="1"/>
-    <cfRule type="duplicateValues" dxfId="97" priority="123" stopIfTrue="1"/>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="B12">
-    <cfRule type="duplicateValues" dxfId="96" priority="116" stopIfTrue="1"/>
-    <cfRule type="duplicateValues" dxfId="95" priority="117" stopIfTrue="1"/>
-    <cfRule type="duplicateValues" dxfId="94" priority="118" stopIfTrue="1"/>
-    <cfRule type="duplicateValues" dxfId="93" priority="119" stopIfTrue="1"/>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="B13">
-    <cfRule type="duplicateValues" dxfId="92" priority="112" stopIfTrue="1"/>
-    <cfRule type="duplicateValues" dxfId="91" priority="113" stopIfTrue="1"/>
-    <cfRule type="duplicateValues" dxfId="90" priority="114" stopIfTrue="1"/>
-    <cfRule type="duplicateValues" dxfId="89" priority="115" stopIfTrue="1"/>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="B14">
-    <cfRule type="duplicateValues" dxfId="88" priority="108" stopIfTrue="1"/>
-    <cfRule type="duplicateValues" dxfId="87" priority="109" stopIfTrue="1"/>
-    <cfRule type="duplicateValues" dxfId="86" priority="110" stopIfTrue="1"/>
-    <cfRule type="duplicateValues" dxfId="85" priority="111" stopIfTrue="1"/>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="B15">
-    <cfRule type="duplicateValues" dxfId="84" priority="92" stopIfTrue="1"/>
-    <cfRule type="duplicateValues" dxfId="83" priority="93" stopIfTrue="1"/>
-    <cfRule type="duplicateValues" dxfId="82" priority="94" stopIfTrue="1"/>
-    <cfRule type="duplicateValues" dxfId="81" priority="95" stopIfTrue="1"/>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="B16">
-    <cfRule type="duplicateValues" dxfId="80" priority="88" stopIfTrue="1"/>
-    <cfRule type="duplicateValues" dxfId="79" priority="89" stopIfTrue="1"/>
-    <cfRule type="duplicateValues" dxfId="78" priority="90" stopIfTrue="1"/>
-    <cfRule type="duplicateValues" dxfId="77" priority="91" stopIfTrue="1"/>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="B18">
-    <cfRule type="duplicateValues" dxfId="76" priority="80" stopIfTrue="1"/>
-    <cfRule type="duplicateValues" dxfId="75" priority="81" stopIfTrue="1"/>
-    <cfRule type="duplicateValues" dxfId="74" priority="82" stopIfTrue="1"/>
-    <cfRule type="duplicateValues" dxfId="73" priority="83" stopIfTrue="1"/>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="B19">
-    <cfRule type="duplicateValues" dxfId="72" priority="76" stopIfTrue="1"/>
-    <cfRule type="duplicateValues" dxfId="71" priority="77" stopIfTrue="1"/>
-    <cfRule type="duplicateValues" dxfId="70" priority="78" stopIfTrue="1"/>
-    <cfRule type="duplicateValues" dxfId="69" priority="79" stopIfTrue="1"/>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="B20:B24">
-    <cfRule type="duplicateValues" dxfId="68" priority="72" stopIfTrue="1"/>
-    <cfRule type="duplicateValues" dxfId="67" priority="73" stopIfTrue="1"/>
-    <cfRule type="duplicateValues" dxfId="66" priority="74" stopIfTrue="1"/>
-    <cfRule type="duplicateValues" dxfId="65" priority="75" stopIfTrue="1"/>
-  </conditionalFormatting>
   <conditionalFormatting sqref="B2">
-    <cfRule type="duplicateValues" dxfId="64" priority="210" stopIfTrue="1"/>
-    <cfRule type="duplicateValues" dxfId="63" priority="211" stopIfTrue="1"/>
-    <cfRule type="duplicateValues" dxfId="62" priority="212" stopIfTrue="1"/>
-    <cfRule type="duplicateValues" dxfId="61" priority="213" stopIfTrue="1"/>
-    <cfRule type="expression" dxfId="60" priority="214" stopIfTrue="1">
+    <cfRule type="duplicateValues" dxfId="136" priority="223" stopIfTrue="1"/>
+    <cfRule type="expression" dxfId="135" priority="219" stopIfTrue="1">
       <formula>AND(COUNTIF($B$1:$B$318, B2)&gt;1,NOT(ISBLANK(B2)))</formula>
     </cfRule>
-    <cfRule type="duplicateValues" dxfId="59" priority="215" stopIfTrue="1"/>
-    <cfRule type="duplicateValues" dxfId="58" priority="216" stopIfTrue="1"/>
-    <cfRule type="duplicateValues" dxfId="57" priority="217" stopIfTrue="1"/>
-    <cfRule type="duplicateValues" dxfId="56" priority="218" stopIfTrue="1"/>
-    <cfRule type="expression" dxfId="55" priority="219" stopIfTrue="1">
+    <cfRule type="duplicateValues" dxfId="134" priority="218" stopIfTrue="1"/>
+    <cfRule type="duplicateValues" dxfId="133" priority="217" stopIfTrue="1"/>
+    <cfRule type="duplicateValues" dxfId="132" priority="220" stopIfTrue="1"/>
+    <cfRule type="duplicateValues" dxfId="131" priority="216" stopIfTrue="1"/>
+    <cfRule type="duplicateValues" dxfId="130" priority="215" stopIfTrue="1"/>
+    <cfRule type="expression" dxfId="129" priority="214" stopIfTrue="1">
       <formula>AND(COUNTIF($B$1:$B$318, B2)&gt;1,NOT(ISBLANK(B2)))</formula>
     </cfRule>
-    <cfRule type="duplicateValues" dxfId="54" priority="220" stopIfTrue="1"/>
-    <cfRule type="duplicateValues" dxfId="53" priority="221" stopIfTrue="1"/>
-    <cfRule type="duplicateValues" dxfId="52" priority="222" stopIfTrue="1"/>
-    <cfRule type="duplicateValues" dxfId="51" priority="223" stopIfTrue="1"/>
-    <cfRule type="expression" dxfId="50" priority="224" stopIfTrue="1">
+    <cfRule type="duplicateValues" dxfId="128" priority="213" stopIfTrue="1"/>
+    <cfRule type="duplicateValues" dxfId="127" priority="212" stopIfTrue="1"/>
+    <cfRule type="duplicateValues" dxfId="126" priority="211" stopIfTrue="1"/>
+    <cfRule type="duplicateValues" dxfId="125" priority="210" stopIfTrue="1"/>
+    <cfRule type="expression" dxfId="124" priority="224" stopIfTrue="1">
       <formula>AND(COUNTIF($B$1:$B$318, B2)&gt;1,NOT(ISBLANK(B2)))</formula>
     </cfRule>
+    <cfRule type="duplicateValues" dxfId="123" priority="222" stopIfTrue="1"/>
+    <cfRule type="duplicateValues" dxfId="122" priority="221" stopIfTrue="1"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="B3">
-    <cfRule type="duplicateValues" dxfId="49" priority="225" stopIfTrue="1"/>
-    <cfRule type="duplicateValues" dxfId="48" priority="226" stopIfTrue="1"/>
-    <cfRule type="duplicateValues" dxfId="47" priority="227" stopIfTrue="1"/>
-    <cfRule type="duplicateValues" dxfId="46" priority="228" stopIfTrue="1"/>
-    <cfRule type="expression" dxfId="45" priority="229" stopIfTrue="1">
+    <cfRule type="duplicateValues" dxfId="121" priority="230" stopIfTrue="1"/>
+    <cfRule type="duplicateValues" dxfId="120" priority="226" stopIfTrue="1"/>
+    <cfRule type="duplicateValues" dxfId="119" priority="231" stopIfTrue="1"/>
+    <cfRule type="duplicateValues" dxfId="118" priority="232" stopIfTrue="1"/>
+    <cfRule type="duplicateValues" dxfId="117" priority="233" stopIfTrue="1"/>
+    <cfRule type="expression" dxfId="116" priority="229" stopIfTrue="1">
       <formula>AND(COUNTIF($B$1:$B$318, B3)&gt;1,NOT(ISBLANK(B3)))</formula>
     </cfRule>
-    <cfRule type="duplicateValues" dxfId="44" priority="230" stopIfTrue="1"/>
-    <cfRule type="duplicateValues" dxfId="43" priority="231" stopIfTrue="1"/>
-    <cfRule type="duplicateValues" dxfId="42" priority="232" stopIfTrue="1"/>
-    <cfRule type="duplicateValues" dxfId="41" priority="233" stopIfTrue="1"/>
+    <cfRule type="duplicateValues" dxfId="115" priority="228" stopIfTrue="1"/>
+    <cfRule type="duplicateValues" dxfId="114" priority="227" stopIfTrue="1"/>
+    <cfRule type="duplicateValues" dxfId="113" priority="225" stopIfTrue="1"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="B3:B24">
-    <cfRule type="expression" dxfId="40" priority="234" stopIfTrue="1">
+    <cfRule type="expression" dxfId="112" priority="234" stopIfTrue="1">
       <formula>AND(COUNTIF($B$1:$B$309, B3)&gt;1,NOT(ISBLANK(B3)))</formula>
     </cfRule>
   </conditionalFormatting>
+  <conditionalFormatting sqref="B4">
+    <cfRule type="duplicateValues" dxfId="111" priority="143" stopIfTrue="1"/>
+    <cfRule type="duplicateValues" dxfId="110" priority="140" stopIfTrue="1"/>
+    <cfRule type="duplicateValues" dxfId="109" priority="142" stopIfTrue="1"/>
+    <cfRule type="duplicateValues" dxfId="108" priority="141" stopIfTrue="1"/>
+  </conditionalFormatting>
   <conditionalFormatting sqref="B4:B14">
-    <cfRule type="expression" dxfId="39" priority="235" stopIfTrue="1">
+    <cfRule type="expression" dxfId="107" priority="235" stopIfTrue="1">
       <formula>AND(COUNTIF($B$1:$B$318, B4)&gt;1,NOT(ISBLANK(B4)))</formula>
     </cfRule>
   </conditionalFormatting>
+  <conditionalFormatting sqref="B5">
+    <cfRule type="duplicateValues" dxfId="106" priority="139" stopIfTrue="1"/>
+    <cfRule type="duplicateValues" dxfId="105" priority="136" stopIfTrue="1"/>
+    <cfRule type="duplicateValues" dxfId="104" priority="137" stopIfTrue="1"/>
+    <cfRule type="duplicateValues" dxfId="103" priority="138" stopIfTrue="1"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="B6">
+    <cfRule type="duplicateValues" dxfId="102" priority="135" stopIfTrue="1"/>
+    <cfRule type="duplicateValues" dxfId="101" priority="134" stopIfTrue="1"/>
+    <cfRule type="duplicateValues" dxfId="100" priority="133" stopIfTrue="1"/>
+    <cfRule type="duplicateValues" dxfId="99" priority="132" stopIfTrue="1"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="B7">
+    <cfRule type="duplicateValues" dxfId="98" priority="40" stopIfTrue="1"/>
+    <cfRule type="duplicateValues" dxfId="97" priority="39" stopIfTrue="1"/>
+    <cfRule type="duplicateValues" dxfId="96" priority="37" stopIfTrue="1"/>
+    <cfRule type="duplicateValues" dxfId="95" priority="38" stopIfTrue="1"/>
+    <cfRule type="duplicateValues" dxfId="94" priority="102" stopIfTrue="1"/>
+    <cfRule type="duplicateValues" dxfId="93" priority="100" stopIfTrue="1"/>
+    <cfRule type="duplicateValues" dxfId="92" priority="101" stopIfTrue="1"/>
+    <cfRule type="duplicateValues" dxfId="91" priority="103" stopIfTrue="1"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="B8">
+    <cfRule type="duplicateValues" dxfId="90" priority="33" stopIfTrue="1"/>
+    <cfRule type="duplicateValues" dxfId="89" priority="34" stopIfTrue="1"/>
+    <cfRule type="duplicateValues" dxfId="88" priority="35" stopIfTrue="1"/>
+    <cfRule type="duplicateValues" dxfId="87" priority="96" stopIfTrue="1"/>
+    <cfRule type="duplicateValues" dxfId="86" priority="97" stopIfTrue="1"/>
+    <cfRule type="duplicateValues" dxfId="85" priority="98" stopIfTrue="1"/>
+    <cfRule type="duplicateValues" dxfId="84" priority="99" stopIfTrue="1"/>
+    <cfRule type="duplicateValues" dxfId="83" priority="32" stopIfTrue="1"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="B9">
+    <cfRule type="duplicateValues" dxfId="82" priority="131" stopIfTrue="1"/>
+    <cfRule type="duplicateValues" dxfId="81" priority="130" stopIfTrue="1"/>
+    <cfRule type="duplicateValues" dxfId="80" priority="129" stopIfTrue="1"/>
+    <cfRule type="duplicateValues" dxfId="79" priority="128" stopIfTrue="1"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="B10">
+    <cfRule type="duplicateValues" dxfId="78" priority="126" stopIfTrue="1"/>
+    <cfRule type="duplicateValues" dxfId="77" priority="124" stopIfTrue="1"/>
+    <cfRule type="duplicateValues" dxfId="76" priority="125" stopIfTrue="1"/>
+    <cfRule type="duplicateValues" dxfId="75" priority="127" stopIfTrue="1"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="B11">
+    <cfRule type="duplicateValues" dxfId="74" priority="123" stopIfTrue="1"/>
+    <cfRule type="duplicateValues" dxfId="73" priority="122" stopIfTrue="1"/>
+    <cfRule type="duplicateValues" dxfId="72" priority="120" stopIfTrue="1"/>
+    <cfRule type="duplicateValues" dxfId="71" priority="121" stopIfTrue="1"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="B12">
+    <cfRule type="duplicateValues" dxfId="70" priority="116" stopIfTrue="1"/>
+    <cfRule type="duplicateValues" dxfId="69" priority="117" stopIfTrue="1"/>
+    <cfRule type="duplicateValues" dxfId="68" priority="118" stopIfTrue="1"/>
+    <cfRule type="duplicateValues" dxfId="67" priority="119" stopIfTrue="1"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="B13">
+    <cfRule type="duplicateValues" dxfId="66" priority="113" stopIfTrue="1"/>
+    <cfRule type="duplicateValues" dxfId="65" priority="114" stopIfTrue="1"/>
+    <cfRule type="duplicateValues" dxfId="64" priority="115" stopIfTrue="1"/>
+    <cfRule type="duplicateValues" dxfId="63" priority="112" stopIfTrue="1"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="B14">
+    <cfRule type="duplicateValues" dxfId="62" priority="108" stopIfTrue="1"/>
+    <cfRule type="duplicateValues" dxfId="61" priority="111" stopIfTrue="1"/>
+    <cfRule type="duplicateValues" dxfId="60" priority="110" stopIfTrue="1"/>
+    <cfRule type="duplicateValues" dxfId="59" priority="109" stopIfTrue="1"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="B15">
+    <cfRule type="duplicateValues" dxfId="58" priority="92" stopIfTrue="1"/>
+    <cfRule type="duplicateValues" dxfId="57" priority="95" stopIfTrue="1"/>
+    <cfRule type="duplicateValues" dxfId="56" priority="93" stopIfTrue="1"/>
+    <cfRule type="duplicateValues" dxfId="55" priority="94" stopIfTrue="1"/>
+  </conditionalFormatting>
   <conditionalFormatting sqref="B15:B16">
-    <cfRule type="duplicateValues" dxfId="38" priority="236" stopIfTrue="1"/>
-    <cfRule type="duplicateValues" dxfId="37" priority="237" stopIfTrue="1"/>
-    <cfRule type="duplicateValues" dxfId="36" priority="238" stopIfTrue="1"/>
-    <cfRule type="duplicateValues" dxfId="35" priority="239" stopIfTrue="1"/>
-    <cfRule type="expression" dxfId="34" priority="240" stopIfTrue="1">
+    <cfRule type="duplicateValues" dxfId="54" priority="237" stopIfTrue="1"/>
+    <cfRule type="duplicateValues" dxfId="53" priority="236" stopIfTrue="1"/>
+    <cfRule type="duplicateValues" dxfId="52" priority="238" stopIfTrue="1"/>
+    <cfRule type="duplicateValues" dxfId="51" priority="239" stopIfTrue="1"/>
+    <cfRule type="expression" dxfId="50" priority="240" stopIfTrue="1">
       <formula>AND(COUNTIF($B$1:$B$318, B15)&gt;1,NOT(ISBLANK(B15)))</formula>
     </cfRule>
   </conditionalFormatting>
+  <conditionalFormatting sqref="B16">
+    <cfRule type="duplicateValues" dxfId="49" priority="91" stopIfTrue="1"/>
+    <cfRule type="duplicateValues" dxfId="48" priority="90" stopIfTrue="1"/>
+    <cfRule type="duplicateValues" dxfId="47" priority="89" stopIfTrue="1"/>
+    <cfRule type="duplicateValues" dxfId="46" priority="88" stopIfTrue="1"/>
+  </conditionalFormatting>
   <conditionalFormatting sqref="B17">
-    <cfRule type="duplicateValues" dxfId="33" priority="241" stopIfTrue="1"/>
-    <cfRule type="duplicateValues" dxfId="32" priority="242" stopIfTrue="1"/>
-    <cfRule type="duplicateValues" dxfId="31" priority="243" stopIfTrue="1"/>
-    <cfRule type="duplicateValues" dxfId="30" priority="244" stopIfTrue="1"/>
-    <cfRule type="expression" dxfId="29" priority="245" stopIfTrue="1">
+    <cfRule type="duplicateValues" dxfId="45" priority="241" stopIfTrue="1"/>
+    <cfRule type="duplicateValues" dxfId="44" priority="242" stopIfTrue="1"/>
+    <cfRule type="duplicateValues" dxfId="43" priority="243" stopIfTrue="1"/>
+    <cfRule type="duplicateValues" dxfId="42" priority="244" stopIfTrue="1"/>
+    <cfRule type="expression" dxfId="41" priority="245" stopIfTrue="1">
       <formula>AND(COUNTIF($B$1:$B$318, B17)&gt;1,NOT(ISBLANK(B17)))</formula>
     </cfRule>
-    <cfRule type="duplicateValues" dxfId="28" priority="246" stopIfTrue="1"/>
-    <cfRule type="duplicateValues" dxfId="27" priority="247" stopIfTrue="1"/>
-    <cfRule type="duplicateValues" dxfId="26" priority="248" stopIfTrue="1"/>
-    <cfRule type="duplicateValues" dxfId="25" priority="249" stopIfTrue="1"/>
+    <cfRule type="duplicateValues" dxfId="40" priority="246" stopIfTrue="1"/>
+    <cfRule type="duplicateValues" dxfId="39" priority="247" stopIfTrue="1"/>
+    <cfRule type="duplicateValues" dxfId="38" priority="248" stopIfTrue="1"/>
+    <cfRule type="duplicateValues" dxfId="37" priority="249" stopIfTrue="1"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="B18">
+    <cfRule type="duplicateValues" dxfId="36" priority="80" stopIfTrue="1"/>
+    <cfRule type="duplicateValues" dxfId="35" priority="82" stopIfTrue="1"/>
+    <cfRule type="duplicateValues" dxfId="34" priority="81" stopIfTrue="1"/>
+    <cfRule type="duplicateValues" dxfId="33" priority="83" stopIfTrue="1"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="B19">
+    <cfRule type="duplicateValues" dxfId="32" priority="79" stopIfTrue="1"/>
+    <cfRule type="duplicateValues" dxfId="31" priority="78" stopIfTrue="1"/>
+    <cfRule type="duplicateValues" dxfId="30" priority="77" stopIfTrue="1"/>
+    <cfRule type="duplicateValues" dxfId="29" priority="76" stopIfTrue="1"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="B20:B24">
+    <cfRule type="duplicateValues" dxfId="28" priority="72" stopIfTrue="1"/>
+    <cfRule type="duplicateValues" dxfId="27" priority="75" stopIfTrue="1"/>
+    <cfRule type="duplicateValues" dxfId="26" priority="74" stopIfTrue="1"/>
+    <cfRule type="duplicateValues" dxfId="25" priority="73" stopIfTrue="1"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="B21">
     <cfRule type="expression" dxfId="24" priority="250" stopIfTrue="1">

--- a/public/Data/non-teaching.xlsx
+++ b/public/Data/non-teaching.xlsx
@@ -5,10 +5,10 @@
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Kaushik\OneDrive\Desktop\CVR\CVR-CSE\public\Data\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Kaushik\OneDrive\Desktop\CVR final\CVR-CSE\public\Data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4E6EDFC0-9C67-401C-94AF-17205F21581C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9893F614-B581-49B0-9742-841B5435BAB8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{78634B72-DAAC-403F-A2A1-7EDC8EC2B134}"/>
   </bookViews>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="121" uniqueCount="82">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="141" uniqueCount="104">
   <si>
     <t>Sl. No.</t>
   </si>
@@ -282,13 +282,82 @@
   </si>
   <si>
     <t>Image</t>
+  </si>
+  <si>
+    <t>Mrs.E.Swapna</t>
+  </si>
+  <si>
+    <t>DTP Operator</t>
+  </si>
+  <si>
+    <t>28th  July 2016</t>
+  </si>
+  <si>
+    <t>CVRADM193</t>
+  </si>
+  <si>
+    <t>Ms.U.Vanitha</t>
+  </si>
+  <si>
+    <t>6th May, 2023</t>
+  </si>
+  <si>
+    <t>Ms.Mrunalini</t>
+  </si>
+  <si>
+    <t>Mr.K.Rajesh</t>
+  </si>
+  <si>
+    <t>Mrs.G.Sumalatha</t>
+  </si>
+  <si>
+    <t>CVRITN001</t>
+  </si>
+  <si>
+    <t>Mr. M V Purushotham Rao</t>
+  </si>
+  <si>
+    <t>Sr. System Admin.</t>
+  </si>
+  <si>
+    <t>27th Sept 2005</t>
+  </si>
+  <si>
+    <t>CVRITN002</t>
+  </si>
+  <si>
+    <t>Mr. K. Arunadha Reddy</t>
+  </si>
+  <si>
+    <t>System Admin.</t>
+  </si>
+  <si>
+    <t>17th July 2007</t>
+  </si>
+  <si>
+    <t>CVRCSEN031</t>
+  </si>
+  <si>
+    <t>Mr. A. Navin Kumar</t>
+  </si>
+  <si>
+    <t>Asst. System Admin.</t>
+  </si>
+  <si>
+    <t>6th Jan 2016</t>
+  </si>
+  <si>
+    <t>dhanalakshmi</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="6" x14ac:knownFonts="1">
+  <numFmts count="1">
+    <numFmt numFmtId="164" formatCode="dd\-mm\-yyyy;@"/>
+  </numFmts>
+  <fonts count="8" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -326,6 +395,19 @@
       <sz val="11"/>
       <color theme="1"/>
       <name val="Times New Roman"/>
+      <family val="1"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="12"/>
+      <color theme="1"/>
+      <name val="Cambria"/>
+      <family val="1"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="12"/>
+      <name val="Cambria"/>
       <family val="1"/>
     </font>
   </fonts>
@@ -371,7 +453,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="15">
+  <cellXfs count="21">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -413,12 +495,88 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="164" fontId="5" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Hyperlink 2 2" xfId="1" xr:uid="{1EFAF3A8-0931-45BD-A8FE-A4E2A6927BC9}"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="137">
+  <dxfs count="142">
+    <dxf>
+      <font>
+        <condense val="0"/>
+        <extend val="0"/>
+        <color indexed="20"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor indexed="45"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <condense val="0"/>
+        <extend val="0"/>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <condense val="0"/>
+        <extend val="0"/>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <condense val="0"/>
+        <extend val="0"/>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <condense val="0"/>
+        <extend val="0"/>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
     <dxf>
       <font>
         <condense val="0"/>
@@ -2395,8 +2553,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{866DEEA3-36C1-4E7D-A645-9FE7ADE932DD}">
   <dimension ref="A1:F36"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F1" sqref="F1"/>
+    <sheetView tabSelected="1" topLeftCell="A15" workbookViewId="0">
+      <selection activeCell="H30" sqref="H30"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -2405,7 +2563,7 @@
     <col min="3" max="3" width="31" customWidth="1"/>
     <col min="4" max="4" width="19.88671875" style="13" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="16.44140625" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="26" customWidth="1"/>
+    <col min="6" max="6" width="28.33203125" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:6" ht="15.6" x14ac:dyDescent="0.3">
@@ -2444,9 +2602,7 @@
       <c r="E2" s="5" t="s">
         <v>8</v>
       </c>
-      <c r="F2" s="5" t="s">
-        <v>8</v>
-      </c>
+      <c r="F2" s="5"/>
     </row>
     <row r="3" spans="1:6" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A3" s="2">
@@ -2504,9 +2660,7 @@
       <c r="E5" s="5" t="s">
         <v>19</v>
       </c>
-      <c r="F5" s="5" t="s">
-        <v>19</v>
-      </c>
+      <c r="F5" s="5"/>
     </row>
     <row r="6" spans="1:6" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A6" s="2">
@@ -2564,9 +2718,7 @@
       <c r="E8" s="5" t="s">
         <v>28</v>
       </c>
-      <c r="F8" s="5" t="s">
-        <v>28</v>
-      </c>
+      <c r="F8" s="5"/>
     </row>
     <row r="9" spans="1:6" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A9" s="2">
@@ -2584,9 +2736,7 @@
       <c r="E9" s="5" t="s">
         <v>31</v>
       </c>
-      <c r="F9" s="5" t="s">
-        <v>31</v>
-      </c>
+      <c r="F9" s="5"/>
     </row>
     <row r="10" spans="1:6" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A10" s="2">
@@ -2664,9 +2814,7 @@
       <c r="E13" s="5" t="s">
         <v>40</v>
       </c>
-      <c r="F13" s="5" t="s">
-        <v>40</v>
-      </c>
+      <c r="F13" s="5"/>
     </row>
     <row r="14" spans="1:6" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A14" s="2">
@@ -2685,7 +2833,7 @@
         <v>45</v>
       </c>
       <c r="F14" s="5" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
     </row>
     <row r="15" spans="1:6" ht="15.6" x14ac:dyDescent="0.3">
@@ -2724,9 +2872,7 @@
       <c r="E16" s="5" t="s">
         <v>51</v>
       </c>
-      <c r="F16" s="5" t="s">
-        <v>51</v>
-      </c>
+      <c r="F16" s="5"/>
     </row>
     <row r="17" spans="1:6" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A17" s="2">
@@ -2765,7 +2911,7 @@
         <v>57</v>
       </c>
       <c r="F18" s="5" t="s">
-        <v>57</v>
+        <v>103</v>
       </c>
     </row>
     <row r="19" spans="1:6" ht="15.6" x14ac:dyDescent="0.3">
@@ -2804,9 +2950,7 @@
       <c r="E20" s="5" t="s">
         <v>63</v>
       </c>
-      <c r="F20" s="5" t="s">
-        <v>63</v>
-      </c>
+      <c r="F20" s="5"/>
     </row>
     <row r="21" spans="1:6" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A21" s="2">
@@ -2887,6 +3031,145 @@
       <c r="F24" s="5" t="s">
         <v>80</v>
       </c>
+    </row>
+    <row r="25" spans="1:6" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A25" s="3">
+        <v>24</v>
+      </c>
+      <c r="B25" s="3"/>
+      <c r="C25" s="7" t="s">
+        <v>82</v>
+      </c>
+      <c r="D25" s="4" t="s">
+        <v>83</v>
+      </c>
+      <c r="E25" s="15" t="s">
+        <v>84</v>
+      </c>
+      <c r="F25" s="5"/>
+    </row>
+    <row r="26" spans="1:6" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A26" s="3">
+        <v>25</v>
+      </c>
+      <c r="B26" s="3" t="s">
+        <v>85</v>
+      </c>
+      <c r="C26" s="7" t="s">
+        <v>86</v>
+      </c>
+      <c r="D26" s="4" t="s">
+        <v>83</v>
+      </c>
+      <c r="E26" s="5" t="s">
+        <v>87</v>
+      </c>
+      <c r="F26" s="5"/>
+    </row>
+    <row r="27" spans="1:6" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A27" s="3">
+        <v>26</v>
+      </c>
+      <c r="B27" s="3"/>
+      <c r="C27" s="7" t="s">
+        <v>88</v>
+      </c>
+      <c r="D27" s="4" t="s">
+        <v>83</v>
+      </c>
+      <c r="E27" s="16"/>
+      <c r="F27" s="5"/>
+    </row>
+    <row r="28" spans="1:6" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A28" s="3">
+        <v>27</v>
+      </c>
+      <c r="B28" s="3"/>
+      <c r="C28" s="7" t="s">
+        <v>89</v>
+      </c>
+      <c r="D28" s="4" t="s">
+        <v>83</v>
+      </c>
+      <c r="E28" s="16"/>
+      <c r="F28" s="5"/>
+    </row>
+    <row r="29" spans="1:6" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A29" s="3">
+        <v>28</v>
+      </c>
+      <c r="B29" s="3"/>
+      <c r="C29" s="7" t="s">
+        <v>90</v>
+      </c>
+      <c r="D29" s="4" t="s">
+        <v>83</v>
+      </c>
+      <c r="E29" s="17">
+        <v>46008</v>
+      </c>
+      <c r="F29" s="5"/>
+    </row>
+    <row r="30" spans="1:6" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A30" s="18">
+        <v>29</v>
+      </c>
+      <c r="B30" s="3" t="s">
+        <v>91</v>
+      </c>
+      <c r="C30" s="7" t="s">
+        <v>92</v>
+      </c>
+      <c r="D30" s="4" t="s">
+        <v>93</v>
+      </c>
+      <c r="E30" s="19" t="s">
+        <v>94</v>
+      </c>
+      <c r="F30" t="s">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="31" spans="1:6" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A31" s="20">
+        <v>30</v>
+      </c>
+      <c r="B31" s="3" t="s">
+        <v>95</v>
+      </c>
+      <c r="C31" s="7" t="s">
+        <v>96</v>
+      </c>
+      <c r="D31" s="4" t="s">
+        <v>97</v>
+      </c>
+      <c r="E31" s="19" t="s">
+        <v>98</v>
+      </c>
+      <c r="F31" t="s">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="32" spans="1:6" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A32" s="20">
+        <v>31</v>
+      </c>
+      <c r="B32" s="3" t="s">
+        <v>99</v>
+      </c>
+      <c r="C32" s="7" t="s">
+        <v>100</v>
+      </c>
+      <c r="D32" s="4" t="s">
+        <v>101</v>
+      </c>
+      <c r="E32" s="19" t="s">
+        <v>102</v>
+      </c>
+      <c r="F32" s="5"/>
+    </row>
+    <row r="33" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="D33"/>
     </row>
     <row r="36" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A36" s="11"/>
@@ -2898,218 +3181,227 @@
     </row>
   </sheetData>
   <conditionalFormatting sqref="B2">
-    <cfRule type="duplicateValues" dxfId="136" priority="223" stopIfTrue="1"/>
-    <cfRule type="expression" dxfId="135" priority="219" stopIfTrue="1">
+    <cfRule type="duplicateValues" dxfId="141" priority="228" stopIfTrue="1"/>
+    <cfRule type="expression" dxfId="140" priority="224" stopIfTrue="1">
       <formula>AND(COUNTIF($B$1:$B$318, B2)&gt;1,NOT(ISBLANK(B2)))</formula>
     </cfRule>
-    <cfRule type="duplicateValues" dxfId="134" priority="218" stopIfTrue="1"/>
-    <cfRule type="duplicateValues" dxfId="133" priority="217" stopIfTrue="1"/>
-    <cfRule type="duplicateValues" dxfId="132" priority="220" stopIfTrue="1"/>
+    <cfRule type="duplicateValues" dxfId="139" priority="223" stopIfTrue="1"/>
+    <cfRule type="duplicateValues" dxfId="138" priority="222" stopIfTrue="1"/>
+    <cfRule type="duplicateValues" dxfId="137" priority="225" stopIfTrue="1"/>
+    <cfRule type="duplicateValues" dxfId="136" priority="221" stopIfTrue="1"/>
+    <cfRule type="duplicateValues" dxfId="135" priority="220" stopIfTrue="1"/>
+    <cfRule type="expression" dxfId="134" priority="219" stopIfTrue="1">
+      <formula>AND(COUNTIF($B$1:$B$318, B2)&gt;1,NOT(ISBLANK(B2)))</formula>
+    </cfRule>
+    <cfRule type="duplicateValues" dxfId="133" priority="218" stopIfTrue="1"/>
+    <cfRule type="duplicateValues" dxfId="132" priority="217" stopIfTrue="1"/>
     <cfRule type="duplicateValues" dxfId="131" priority="216" stopIfTrue="1"/>
     <cfRule type="duplicateValues" dxfId="130" priority="215" stopIfTrue="1"/>
-    <cfRule type="expression" dxfId="129" priority="214" stopIfTrue="1">
+    <cfRule type="expression" dxfId="129" priority="229" stopIfTrue="1">
       <formula>AND(COUNTIF($B$1:$B$318, B2)&gt;1,NOT(ISBLANK(B2)))</formula>
     </cfRule>
-    <cfRule type="duplicateValues" dxfId="128" priority="213" stopIfTrue="1"/>
-    <cfRule type="duplicateValues" dxfId="127" priority="212" stopIfTrue="1"/>
-    <cfRule type="duplicateValues" dxfId="126" priority="211" stopIfTrue="1"/>
-    <cfRule type="duplicateValues" dxfId="125" priority="210" stopIfTrue="1"/>
-    <cfRule type="expression" dxfId="124" priority="224" stopIfTrue="1">
-      <formula>AND(COUNTIF($B$1:$B$318, B2)&gt;1,NOT(ISBLANK(B2)))</formula>
-    </cfRule>
-    <cfRule type="duplicateValues" dxfId="123" priority="222" stopIfTrue="1"/>
-    <cfRule type="duplicateValues" dxfId="122" priority="221" stopIfTrue="1"/>
+    <cfRule type="duplicateValues" dxfId="128" priority="227" stopIfTrue="1"/>
+    <cfRule type="duplicateValues" dxfId="127" priority="226" stopIfTrue="1"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="B3">
-    <cfRule type="duplicateValues" dxfId="121" priority="230" stopIfTrue="1"/>
-    <cfRule type="duplicateValues" dxfId="120" priority="226" stopIfTrue="1"/>
-    <cfRule type="duplicateValues" dxfId="119" priority="231" stopIfTrue="1"/>
-    <cfRule type="duplicateValues" dxfId="118" priority="232" stopIfTrue="1"/>
-    <cfRule type="duplicateValues" dxfId="117" priority="233" stopIfTrue="1"/>
-    <cfRule type="expression" dxfId="116" priority="229" stopIfTrue="1">
+    <cfRule type="duplicateValues" dxfId="126" priority="235" stopIfTrue="1"/>
+    <cfRule type="duplicateValues" dxfId="125" priority="231" stopIfTrue="1"/>
+    <cfRule type="duplicateValues" dxfId="124" priority="236" stopIfTrue="1"/>
+    <cfRule type="duplicateValues" dxfId="123" priority="237" stopIfTrue="1"/>
+    <cfRule type="duplicateValues" dxfId="122" priority="238" stopIfTrue="1"/>
+    <cfRule type="expression" dxfId="121" priority="234" stopIfTrue="1">
       <formula>AND(COUNTIF($B$1:$B$318, B3)&gt;1,NOT(ISBLANK(B3)))</formula>
     </cfRule>
-    <cfRule type="duplicateValues" dxfId="115" priority="228" stopIfTrue="1"/>
-    <cfRule type="duplicateValues" dxfId="114" priority="227" stopIfTrue="1"/>
-    <cfRule type="duplicateValues" dxfId="113" priority="225" stopIfTrue="1"/>
+    <cfRule type="duplicateValues" dxfId="120" priority="233" stopIfTrue="1"/>
+    <cfRule type="duplicateValues" dxfId="119" priority="232" stopIfTrue="1"/>
+    <cfRule type="duplicateValues" dxfId="118" priority="230" stopIfTrue="1"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="B3:B24">
-    <cfRule type="expression" dxfId="112" priority="234" stopIfTrue="1">
+    <cfRule type="expression" dxfId="117" priority="239" stopIfTrue="1">
       <formula>AND(COUNTIF($B$1:$B$309, B3)&gt;1,NOT(ISBLANK(B3)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B4">
-    <cfRule type="duplicateValues" dxfId="111" priority="143" stopIfTrue="1"/>
-    <cfRule type="duplicateValues" dxfId="110" priority="140" stopIfTrue="1"/>
-    <cfRule type="duplicateValues" dxfId="109" priority="142" stopIfTrue="1"/>
-    <cfRule type="duplicateValues" dxfId="108" priority="141" stopIfTrue="1"/>
+    <cfRule type="duplicateValues" dxfId="116" priority="148" stopIfTrue="1"/>
+    <cfRule type="duplicateValues" dxfId="115" priority="145" stopIfTrue="1"/>
+    <cfRule type="duplicateValues" dxfId="114" priority="147" stopIfTrue="1"/>
+    <cfRule type="duplicateValues" dxfId="113" priority="146" stopIfTrue="1"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="B4:B14">
-    <cfRule type="expression" dxfId="107" priority="235" stopIfTrue="1">
+    <cfRule type="expression" dxfId="112" priority="240" stopIfTrue="1">
       <formula>AND(COUNTIF($B$1:$B$318, B4)&gt;1,NOT(ISBLANK(B4)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B5">
-    <cfRule type="duplicateValues" dxfId="106" priority="139" stopIfTrue="1"/>
-    <cfRule type="duplicateValues" dxfId="105" priority="136" stopIfTrue="1"/>
-    <cfRule type="duplicateValues" dxfId="104" priority="137" stopIfTrue="1"/>
-    <cfRule type="duplicateValues" dxfId="103" priority="138" stopIfTrue="1"/>
+    <cfRule type="duplicateValues" dxfId="111" priority="144" stopIfTrue="1"/>
+    <cfRule type="duplicateValues" dxfId="110" priority="141" stopIfTrue="1"/>
+    <cfRule type="duplicateValues" dxfId="109" priority="142" stopIfTrue="1"/>
+    <cfRule type="duplicateValues" dxfId="108" priority="143" stopIfTrue="1"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="B6">
-    <cfRule type="duplicateValues" dxfId="102" priority="135" stopIfTrue="1"/>
-    <cfRule type="duplicateValues" dxfId="101" priority="134" stopIfTrue="1"/>
-    <cfRule type="duplicateValues" dxfId="100" priority="133" stopIfTrue="1"/>
-    <cfRule type="duplicateValues" dxfId="99" priority="132" stopIfTrue="1"/>
+    <cfRule type="duplicateValues" dxfId="107" priority="140" stopIfTrue="1"/>
+    <cfRule type="duplicateValues" dxfId="106" priority="139" stopIfTrue="1"/>
+    <cfRule type="duplicateValues" dxfId="105" priority="138" stopIfTrue="1"/>
+    <cfRule type="duplicateValues" dxfId="104" priority="137" stopIfTrue="1"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="B7">
-    <cfRule type="duplicateValues" dxfId="98" priority="40" stopIfTrue="1"/>
-    <cfRule type="duplicateValues" dxfId="97" priority="39" stopIfTrue="1"/>
-    <cfRule type="duplicateValues" dxfId="96" priority="37" stopIfTrue="1"/>
-    <cfRule type="duplicateValues" dxfId="95" priority="38" stopIfTrue="1"/>
-    <cfRule type="duplicateValues" dxfId="94" priority="102" stopIfTrue="1"/>
-    <cfRule type="duplicateValues" dxfId="93" priority="100" stopIfTrue="1"/>
-    <cfRule type="duplicateValues" dxfId="92" priority="101" stopIfTrue="1"/>
-    <cfRule type="duplicateValues" dxfId="91" priority="103" stopIfTrue="1"/>
+    <cfRule type="duplicateValues" dxfId="103" priority="45" stopIfTrue="1"/>
+    <cfRule type="duplicateValues" dxfId="102" priority="44" stopIfTrue="1"/>
+    <cfRule type="duplicateValues" dxfId="101" priority="42" stopIfTrue="1"/>
+    <cfRule type="duplicateValues" dxfId="100" priority="43" stopIfTrue="1"/>
+    <cfRule type="duplicateValues" dxfId="99" priority="107" stopIfTrue="1"/>
+    <cfRule type="duplicateValues" dxfId="98" priority="105" stopIfTrue="1"/>
+    <cfRule type="duplicateValues" dxfId="97" priority="106" stopIfTrue="1"/>
+    <cfRule type="duplicateValues" dxfId="96" priority="108" stopIfTrue="1"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="B8">
-    <cfRule type="duplicateValues" dxfId="90" priority="33" stopIfTrue="1"/>
-    <cfRule type="duplicateValues" dxfId="89" priority="34" stopIfTrue="1"/>
-    <cfRule type="duplicateValues" dxfId="88" priority="35" stopIfTrue="1"/>
-    <cfRule type="duplicateValues" dxfId="87" priority="96" stopIfTrue="1"/>
-    <cfRule type="duplicateValues" dxfId="86" priority="97" stopIfTrue="1"/>
-    <cfRule type="duplicateValues" dxfId="85" priority="98" stopIfTrue="1"/>
-    <cfRule type="duplicateValues" dxfId="84" priority="99" stopIfTrue="1"/>
-    <cfRule type="duplicateValues" dxfId="83" priority="32" stopIfTrue="1"/>
+    <cfRule type="duplicateValues" dxfId="95" priority="38" stopIfTrue="1"/>
+    <cfRule type="duplicateValues" dxfId="94" priority="39" stopIfTrue="1"/>
+    <cfRule type="duplicateValues" dxfId="93" priority="40" stopIfTrue="1"/>
+    <cfRule type="duplicateValues" dxfId="92" priority="101" stopIfTrue="1"/>
+    <cfRule type="duplicateValues" dxfId="91" priority="102" stopIfTrue="1"/>
+    <cfRule type="duplicateValues" dxfId="90" priority="103" stopIfTrue="1"/>
+    <cfRule type="duplicateValues" dxfId="89" priority="104" stopIfTrue="1"/>
+    <cfRule type="duplicateValues" dxfId="88" priority="37" stopIfTrue="1"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="B9">
-    <cfRule type="duplicateValues" dxfId="82" priority="131" stopIfTrue="1"/>
-    <cfRule type="duplicateValues" dxfId="81" priority="130" stopIfTrue="1"/>
-    <cfRule type="duplicateValues" dxfId="80" priority="129" stopIfTrue="1"/>
-    <cfRule type="duplicateValues" dxfId="79" priority="128" stopIfTrue="1"/>
+    <cfRule type="duplicateValues" dxfId="87" priority="136" stopIfTrue="1"/>
+    <cfRule type="duplicateValues" dxfId="86" priority="135" stopIfTrue="1"/>
+    <cfRule type="duplicateValues" dxfId="85" priority="134" stopIfTrue="1"/>
+    <cfRule type="duplicateValues" dxfId="84" priority="133" stopIfTrue="1"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="B10">
-    <cfRule type="duplicateValues" dxfId="78" priority="126" stopIfTrue="1"/>
-    <cfRule type="duplicateValues" dxfId="77" priority="124" stopIfTrue="1"/>
-    <cfRule type="duplicateValues" dxfId="76" priority="125" stopIfTrue="1"/>
-    <cfRule type="duplicateValues" dxfId="75" priority="127" stopIfTrue="1"/>
+    <cfRule type="duplicateValues" dxfId="83" priority="131" stopIfTrue="1"/>
+    <cfRule type="duplicateValues" dxfId="82" priority="129" stopIfTrue="1"/>
+    <cfRule type="duplicateValues" dxfId="81" priority="130" stopIfTrue="1"/>
+    <cfRule type="duplicateValues" dxfId="80" priority="132" stopIfTrue="1"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="B11">
-    <cfRule type="duplicateValues" dxfId="74" priority="123" stopIfTrue="1"/>
-    <cfRule type="duplicateValues" dxfId="73" priority="122" stopIfTrue="1"/>
-    <cfRule type="duplicateValues" dxfId="72" priority="120" stopIfTrue="1"/>
-    <cfRule type="duplicateValues" dxfId="71" priority="121" stopIfTrue="1"/>
+    <cfRule type="duplicateValues" dxfId="79" priority="128" stopIfTrue="1"/>
+    <cfRule type="duplicateValues" dxfId="78" priority="127" stopIfTrue="1"/>
+    <cfRule type="duplicateValues" dxfId="77" priority="125" stopIfTrue="1"/>
+    <cfRule type="duplicateValues" dxfId="76" priority="126" stopIfTrue="1"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="B12">
-    <cfRule type="duplicateValues" dxfId="70" priority="116" stopIfTrue="1"/>
-    <cfRule type="duplicateValues" dxfId="69" priority="117" stopIfTrue="1"/>
-    <cfRule type="duplicateValues" dxfId="68" priority="118" stopIfTrue="1"/>
-    <cfRule type="duplicateValues" dxfId="67" priority="119" stopIfTrue="1"/>
+    <cfRule type="duplicateValues" dxfId="75" priority="121" stopIfTrue="1"/>
+    <cfRule type="duplicateValues" dxfId="74" priority="122" stopIfTrue="1"/>
+    <cfRule type="duplicateValues" dxfId="73" priority="123" stopIfTrue="1"/>
+    <cfRule type="duplicateValues" dxfId="72" priority="124" stopIfTrue="1"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="B13">
-    <cfRule type="duplicateValues" dxfId="66" priority="113" stopIfTrue="1"/>
-    <cfRule type="duplicateValues" dxfId="65" priority="114" stopIfTrue="1"/>
-    <cfRule type="duplicateValues" dxfId="64" priority="115" stopIfTrue="1"/>
-    <cfRule type="duplicateValues" dxfId="63" priority="112" stopIfTrue="1"/>
+    <cfRule type="duplicateValues" dxfId="71" priority="118" stopIfTrue="1"/>
+    <cfRule type="duplicateValues" dxfId="70" priority="119" stopIfTrue="1"/>
+    <cfRule type="duplicateValues" dxfId="69" priority="120" stopIfTrue="1"/>
+    <cfRule type="duplicateValues" dxfId="68" priority="117" stopIfTrue="1"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="B14">
-    <cfRule type="duplicateValues" dxfId="62" priority="108" stopIfTrue="1"/>
-    <cfRule type="duplicateValues" dxfId="61" priority="111" stopIfTrue="1"/>
-    <cfRule type="duplicateValues" dxfId="60" priority="110" stopIfTrue="1"/>
-    <cfRule type="duplicateValues" dxfId="59" priority="109" stopIfTrue="1"/>
+    <cfRule type="duplicateValues" dxfId="67" priority="113" stopIfTrue="1"/>
+    <cfRule type="duplicateValues" dxfId="66" priority="116" stopIfTrue="1"/>
+    <cfRule type="duplicateValues" dxfId="65" priority="115" stopIfTrue="1"/>
+    <cfRule type="duplicateValues" dxfId="64" priority="114" stopIfTrue="1"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="B15">
-    <cfRule type="duplicateValues" dxfId="58" priority="92" stopIfTrue="1"/>
-    <cfRule type="duplicateValues" dxfId="57" priority="95" stopIfTrue="1"/>
-    <cfRule type="duplicateValues" dxfId="56" priority="93" stopIfTrue="1"/>
-    <cfRule type="duplicateValues" dxfId="55" priority="94" stopIfTrue="1"/>
+    <cfRule type="duplicateValues" dxfId="63" priority="97" stopIfTrue="1"/>
+    <cfRule type="duplicateValues" dxfId="62" priority="100" stopIfTrue="1"/>
+    <cfRule type="duplicateValues" dxfId="61" priority="98" stopIfTrue="1"/>
+    <cfRule type="duplicateValues" dxfId="60" priority="99" stopIfTrue="1"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="B15:B16">
-    <cfRule type="duplicateValues" dxfId="54" priority="237" stopIfTrue="1"/>
-    <cfRule type="duplicateValues" dxfId="53" priority="236" stopIfTrue="1"/>
-    <cfRule type="duplicateValues" dxfId="52" priority="238" stopIfTrue="1"/>
-    <cfRule type="duplicateValues" dxfId="51" priority="239" stopIfTrue="1"/>
-    <cfRule type="expression" dxfId="50" priority="240" stopIfTrue="1">
+    <cfRule type="duplicateValues" dxfId="59" priority="242" stopIfTrue="1"/>
+    <cfRule type="duplicateValues" dxfId="58" priority="241" stopIfTrue="1"/>
+    <cfRule type="duplicateValues" dxfId="57" priority="243" stopIfTrue="1"/>
+    <cfRule type="duplicateValues" dxfId="56" priority="244" stopIfTrue="1"/>
+    <cfRule type="expression" dxfId="55" priority="245" stopIfTrue="1">
       <formula>AND(COUNTIF($B$1:$B$318, B15)&gt;1,NOT(ISBLANK(B15)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B16">
-    <cfRule type="duplicateValues" dxfId="49" priority="91" stopIfTrue="1"/>
-    <cfRule type="duplicateValues" dxfId="48" priority="90" stopIfTrue="1"/>
-    <cfRule type="duplicateValues" dxfId="47" priority="89" stopIfTrue="1"/>
-    <cfRule type="duplicateValues" dxfId="46" priority="88" stopIfTrue="1"/>
+    <cfRule type="duplicateValues" dxfId="54" priority="96" stopIfTrue="1"/>
+    <cfRule type="duplicateValues" dxfId="53" priority="95" stopIfTrue="1"/>
+    <cfRule type="duplicateValues" dxfId="52" priority="94" stopIfTrue="1"/>
+    <cfRule type="duplicateValues" dxfId="51" priority="93" stopIfTrue="1"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="B17">
-    <cfRule type="duplicateValues" dxfId="45" priority="241" stopIfTrue="1"/>
-    <cfRule type="duplicateValues" dxfId="44" priority="242" stopIfTrue="1"/>
-    <cfRule type="duplicateValues" dxfId="43" priority="243" stopIfTrue="1"/>
-    <cfRule type="duplicateValues" dxfId="42" priority="244" stopIfTrue="1"/>
-    <cfRule type="expression" dxfId="41" priority="245" stopIfTrue="1">
+    <cfRule type="duplicateValues" dxfId="50" priority="246" stopIfTrue="1"/>
+    <cfRule type="duplicateValues" dxfId="49" priority="247" stopIfTrue="1"/>
+    <cfRule type="duplicateValues" dxfId="48" priority="248" stopIfTrue="1"/>
+    <cfRule type="duplicateValues" dxfId="47" priority="249" stopIfTrue="1"/>
+    <cfRule type="expression" dxfId="46" priority="250" stopIfTrue="1">
       <formula>AND(COUNTIF($B$1:$B$318, B17)&gt;1,NOT(ISBLANK(B17)))</formula>
     </cfRule>
-    <cfRule type="duplicateValues" dxfId="40" priority="246" stopIfTrue="1"/>
-    <cfRule type="duplicateValues" dxfId="39" priority="247" stopIfTrue="1"/>
-    <cfRule type="duplicateValues" dxfId="38" priority="248" stopIfTrue="1"/>
-    <cfRule type="duplicateValues" dxfId="37" priority="249" stopIfTrue="1"/>
+    <cfRule type="duplicateValues" dxfId="45" priority="251" stopIfTrue="1"/>
+    <cfRule type="duplicateValues" dxfId="44" priority="252" stopIfTrue="1"/>
+    <cfRule type="duplicateValues" dxfId="43" priority="253" stopIfTrue="1"/>
+    <cfRule type="duplicateValues" dxfId="42" priority="254" stopIfTrue="1"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="B18">
-    <cfRule type="duplicateValues" dxfId="36" priority="80" stopIfTrue="1"/>
+    <cfRule type="duplicateValues" dxfId="41" priority="85" stopIfTrue="1"/>
+    <cfRule type="duplicateValues" dxfId="40" priority="87" stopIfTrue="1"/>
+    <cfRule type="duplicateValues" dxfId="39" priority="86" stopIfTrue="1"/>
+    <cfRule type="duplicateValues" dxfId="38" priority="88" stopIfTrue="1"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="B19">
+    <cfRule type="duplicateValues" dxfId="37" priority="84" stopIfTrue="1"/>
+    <cfRule type="duplicateValues" dxfId="36" priority="83" stopIfTrue="1"/>
     <cfRule type="duplicateValues" dxfId="35" priority="82" stopIfTrue="1"/>
     <cfRule type="duplicateValues" dxfId="34" priority="81" stopIfTrue="1"/>
-    <cfRule type="duplicateValues" dxfId="33" priority="83" stopIfTrue="1"/>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="B19">
-    <cfRule type="duplicateValues" dxfId="32" priority="79" stopIfTrue="1"/>
-    <cfRule type="duplicateValues" dxfId="31" priority="78" stopIfTrue="1"/>
-    <cfRule type="duplicateValues" dxfId="30" priority="77" stopIfTrue="1"/>
-    <cfRule type="duplicateValues" dxfId="29" priority="76" stopIfTrue="1"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="B20:B24">
-    <cfRule type="duplicateValues" dxfId="28" priority="72" stopIfTrue="1"/>
-    <cfRule type="duplicateValues" dxfId="27" priority="75" stopIfTrue="1"/>
-    <cfRule type="duplicateValues" dxfId="26" priority="74" stopIfTrue="1"/>
-    <cfRule type="duplicateValues" dxfId="25" priority="73" stopIfTrue="1"/>
+    <cfRule type="duplicateValues" dxfId="33" priority="77" stopIfTrue="1"/>
+    <cfRule type="duplicateValues" dxfId="32" priority="80" stopIfTrue="1"/>
+    <cfRule type="duplicateValues" dxfId="31" priority="79" stopIfTrue="1"/>
+    <cfRule type="duplicateValues" dxfId="30" priority="78" stopIfTrue="1"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="B21">
-    <cfRule type="expression" dxfId="24" priority="250" stopIfTrue="1">
+    <cfRule type="expression" dxfId="29" priority="255" stopIfTrue="1">
       <formula>AND(COUNTIF($B$1:$B$140, B21)&gt;1,NOT(ISBLANK(B21)))</formula>
     </cfRule>
-    <cfRule type="duplicateValues" dxfId="23" priority="251" stopIfTrue="1"/>
-    <cfRule type="duplicateValues" dxfId="22" priority="252" stopIfTrue="1"/>
-    <cfRule type="duplicateValues" dxfId="21" priority="253" stopIfTrue="1"/>
-    <cfRule type="duplicateValues" dxfId="20" priority="254" stopIfTrue="1"/>
-    <cfRule type="expression" dxfId="19" priority="255" stopIfTrue="1">
+    <cfRule type="duplicateValues" dxfId="28" priority="256" stopIfTrue="1"/>
+    <cfRule type="duplicateValues" dxfId="27" priority="257" stopIfTrue="1"/>
+    <cfRule type="duplicateValues" dxfId="26" priority="258" stopIfTrue="1"/>
+    <cfRule type="duplicateValues" dxfId="25" priority="259" stopIfTrue="1"/>
+    <cfRule type="expression" dxfId="24" priority="260" stopIfTrue="1">
       <formula>AND(COUNTIF($B$1:$B$140, B21)&gt;1,NOT(ISBLANK(B21)))</formula>
     </cfRule>
-    <cfRule type="duplicateValues" dxfId="18" priority="256" stopIfTrue="1"/>
-    <cfRule type="duplicateValues" dxfId="17" priority="257" stopIfTrue="1"/>
-    <cfRule type="duplicateValues" dxfId="16" priority="258" stopIfTrue="1"/>
-    <cfRule type="duplicateValues" dxfId="15" priority="259" stopIfTrue="1"/>
+    <cfRule type="duplicateValues" dxfId="23" priority="261" stopIfTrue="1"/>
+    <cfRule type="duplicateValues" dxfId="22" priority="262" stopIfTrue="1"/>
+    <cfRule type="duplicateValues" dxfId="21" priority="263" stopIfTrue="1"/>
+    <cfRule type="duplicateValues" dxfId="20" priority="264" stopIfTrue="1"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="B22">
-    <cfRule type="duplicateValues" dxfId="14" priority="260" stopIfTrue="1"/>
-    <cfRule type="duplicateValues" dxfId="13" priority="261" stopIfTrue="1"/>
-    <cfRule type="duplicateValues" dxfId="12" priority="262" stopIfTrue="1"/>
-    <cfRule type="duplicateValues" dxfId="11" priority="263" stopIfTrue="1"/>
-    <cfRule type="expression" dxfId="10" priority="264" stopIfTrue="1">
+    <cfRule type="duplicateValues" dxfId="19" priority="265" stopIfTrue="1"/>
+    <cfRule type="duplicateValues" dxfId="18" priority="266" stopIfTrue="1"/>
+    <cfRule type="duplicateValues" dxfId="17" priority="267" stopIfTrue="1"/>
+    <cfRule type="duplicateValues" dxfId="16" priority="268" stopIfTrue="1"/>
+    <cfRule type="expression" dxfId="15" priority="269" stopIfTrue="1">
       <formula>AND(COUNTIF($B$1:$B$343, B22)&gt;1,NOT(ISBLANK(B22)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B23:B24">
-    <cfRule type="duplicateValues" dxfId="9" priority="265" stopIfTrue="1"/>
-    <cfRule type="duplicateValues" dxfId="8" priority="266" stopIfTrue="1"/>
-    <cfRule type="duplicateValues" dxfId="7" priority="267" stopIfTrue="1"/>
-    <cfRule type="duplicateValues" dxfId="6" priority="268" stopIfTrue="1"/>
-    <cfRule type="expression" dxfId="5" priority="269" stopIfTrue="1">
+    <cfRule type="duplicateValues" dxfId="14" priority="270" stopIfTrue="1"/>
+    <cfRule type="duplicateValues" dxfId="13" priority="271" stopIfTrue="1"/>
+    <cfRule type="duplicateValues" dxfId="12" priority="272" stopIfTrue="1"/>
+    <cfRule type="duplicateValues" dxfId="11" priority="273" stopIfTrue="1"/>
+    <cfRule type="expression" dxfId="10" priority="274" stopIfTrue="1">
       <formula>AND(COUNTIF($B$1:$B$316, B23)&gt;1,NOT(ISBLANK(B23)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B24">
-    <cfRule type="duplicateValues" dxfId="4" priority="270" stopIfTrue="1"/>
-    <cfRule type="duplicateValues" dxfId="3" priority="271" stopIfTrue="1"/>
-    <cfRule type="duplicateValues" dxfId="2" priority="272" stopIfTrue="1"/>
-    <cfRule type="duplicateValues" dxfId="1" priority="273" stopIfTrue="1"/>
-    <cfRule type="expression" dxfId="0" priority="274" stopIfTrue="1">
+    <cfRule type="duplicateValues" dxfId="9" priority="275" stopIfTrue="1"/>
+    <cfRule type="duplicateValues" dxfId="8" priority="276" stopIfTrue="1"/>
+    <cfRule type="duplicateValues" dxfId="7" priority="277" stopIfTrue="1"/>
+    <cfRule type="duplicateValues" dxfId="6" priority="278" stopIfTrue="1"/>
+    <cfRule type="expression" dxfId="5" priority="279" stopIfTrue="1">
       <formula>AND(COUNTIF($B$1:$B$343, B24)&gt;1,NOT(ISBLANK(B24)))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="B31">
+    <cfRule type="duplicateValues" dxfId="4" priority="1" stopIfTrue="1"/>
+    <cfRule type="duplicateValues" dxfId="3" priority="2" stopIfTrue="1"/>
+    <cfRule type="duplicateValues" dxfId="2" priority="3" stopIfTrue="1"/>
+    <cfRule type="duplicateValues" dxfId="1" priority="4" stopIfTrue="1"/>
+    <cfRule type="expression" dxfId="0" priority="5" stopIfTrue="1">
+      <formula>AND(COUNTIF($B$1:$B$131, B31)&gt;1,NOT(ISBLANK(B31)))</formula>
     </cfRule>
   </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/public/Data/non-teaching.xlsx
+++ b/public/Data/non-teaching.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Kaushik\OneDrive\Desktop\CVR final\CVR-CSE\public\Data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9893F614-B581-49B0-9742-841B5435BAB8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2F76AE45-FCEA-4B35-8EB0-2E04DE06CA23}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{78634B72-DAAC-403F-A2A1-7EDC8EC2B134}"/>
   </bookViews>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="141" uniqueCount="104">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="144" uniqueCount="107">
   <si>
     <t>Sl. No.</t>
   </si>
@@ -348,6 +348,15 @@
   </si>
   <si>
     <t>dhanalakshmi</t>
+  </si>
+  <si>
+    <t>rajesh</t>
+  </si>
+  <si>
+    <t>vanitha</t>
+  </si>
+  <si>
+    <t>sumalatha</t>
   </si>
 </sst>
 </file>
@@ -521,6 +530,54 @@
       <font>
         <condense val="0"/>
         <extend val="0"/>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <condense val="0"/>
+        <extend val="0"/>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <condense val="0"/>
+        <extend val="0"/>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <condense val="0"/>
+        <extend val="0"/>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <condense val="0"/>
+        <extend val="0"/>
         <color indexed="20"/>
       </font>
       <fill>
@@ -593,54 +650,6 @@
       <font>
         <condense val="0"/>
         <extend val="0"/>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <condense val="0"/>
-        <extend val="0"/>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <condense val="0"/>
-        <extend val="0"/>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <condense val="0"/>
-        <extend val="0"/>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <condense val="0"/>
-        <extend val="0"/>
         <color indexed="20"/>
       </font>
       <fill>
@@ -785,30 +794,6 @@
       <font>
         <condense val="0"/>
         <extend val="0"/>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <condense val="0"/>
-        <extend val="0"/>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <condense val="0"/>
-        <extend val="0"/>
         <color indexed="20"/>
       </font>
       <fill>
@@ -1073,6 +1058,30 @@
       <font>
         <condense val="0"/>
         <extend val="0"/>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <condense val="0"/>
+        <extend val="0"/>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <condense val="0"/>
+        <extend val="0"/>
         <color indexed="20"/>
       </font>
       <fill>
@@ -1961,18 +1970,6 @@
       <font>
         <condense val="0"/>
         <extend val="0"/>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <condense val="0"/>
-        <extend val="0"/>
         <color indexed="20"/>
       </font>
       <fill>
@@ -2117,18 +2114,6 @@
       <font>
         <condense val="0"/>
         <extend val="0"/>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <condense val="0"/>
-        <extend val="0"/>
         <color indexed="20"/>
       </font>
       <fill>
@@ -2153,59 +2138,83 @@
       <font>
         <condense val="0"/>
         <extend val="0"/>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <condense val="0"/>
-        <extend val="0"/>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <condense val="0"/>
-        <extend val="0"/>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <condense val="0"/>
-        <extend val="0"/>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <condense val="0"/>
-        <extend val="0"/>
         <color indexed="20"/>
       </font>
       <fill>
         <patternFill>
           <bgColor indexed="45"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <condense val="0"/>
+        <extend val="0"/>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <condense val="0"/>
+        <extend val="0"/>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <condense val="0"/>
+        <extend val="0"/>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <condense val="0"/>
+        <extend val="0"/>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <condense val="0"/>
+        <extend val="0"/>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <condense val="0"/>
+        <extend val="0"/>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
         </patternFill>
       </fill>
     </dxf>
@@ -2553,8 +2562,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{866DEEA3-36C1-4E7D-A645-9FE7ADE932DD}">
   <dimension ref="A1:F36"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A15" workbookViewId="0">
-      <selection activeCell="H30" sqref="H30"/>
+    <sheetView tabSelected="1" topLeftCell="A11" workbookViewId="0">
+      <selection activeCell="F29" sqref="F29"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -3064,7 +3073,9 @@
       <c r="E26" s="5" t="s">
         <v>87</v>
       </c>
-      <c r="F26" s="5"/>
+      <c r="F26" s="5" t="s">
+        <v>105</v>
+      </c>
     </row>
     <row r="27" spans="1:6" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A27" s="3">
@@ -3092,7 +3103,9 @@
         <v>83</v>
       </c>
       <c r="E28" s="16"/>
-      <c r="F28" s="5"/>
+      <c r="F28" s="5" t="s">
+        <v>104</v>
+      </c>
     </row>
     <row r="29" spans="1:6" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A29" s="3">
@@ -3108,7 +3121,9 @@
       <c r="E29" s="17">
         <v>46008</v>
       </c>
-      <c r="F29" s="5"/>
+      <c r="F29" s="5" t="s">
+        <v>106</v>
+      </c>
     </row>
     <row r="30" spans="1:6" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A30" s="18">
@@ -3181,40 +3196,40 @@
     </row>
   </sheetData>
   <conditionalFormatting sqref="B2">
-    <cfRule type="duplicateValues" dxfId="141" priority="228" stopIfTrue="1"/>
-    <cfRule type="expression" dxfId="140" priority="224" stopIfTrue="1">
-      <formula>AND(COUNTIF($B$1:$B$318, B2)&gt;1,NOT(ISBLANK(B2)))</formula>
-    </cfRule>
-    <cfRule type="duplicateValues" dxfId="139" priority="223" stopIfTrue="1"/>
-    <cfRule type="duplicateValues" dxfId="138" priority="222" stopIfTrue="1"/>
-    <cfRule type="duplicateValues" dxfId="137" priority="225" stopIfTrue="1"/>
+    <cfRule type="duplicateValues" dxfId="141" priority="222" stopIfTrue="1"/>
+    <cfRule type="duplicateValues" dxfId="140" priority="218" stopIfTrue="1"/>
+    <cfRule type="duplicateValues" dxfId="139" priority="217" stopIfTrue="1"/>
+    <cfRule type="duplicateValues" dxfId="138" priority="216" stopIfTrue="1"/>
+    <cfRule type="duplicateValues" dxfId="137" priority="215" stopIfTrue="1"/>
     <cfRule type="duplicateValues" dxfId="136" priority="221" stopIfTrue="1"/>
     <cfRule type="duplicateValues" dxfId="135" priority="220" stopIfTrue="1"/>
     <cfRule type="expression" dxfId="134" priority="219" stopIfTrue="1">
       <formula>AND(COUNTIF($B$1:$B$318, B2)&gt;1,NOT(ISBLANK(B2)))</formula>
     </cfRule>
-    <cfRule type="duplicateValues" dxfId="133" priority="218" stopIfTrue="1"/>
-    <cfRule type="duplicateValues" dxfId="132" priority="217" stopIfTrue="1"/>
-    <cfRule type="duplicateValues" dxfId="131" priority="216" stopIfTrue="1"/>
-    <cfRule type="duplicateValues" dxfId="130" priority="215" stopIfTrue="1"/>
-    <cfRule type="expression" dxfId="129" priority="229" stopIfTrue="1">
+    <cfRule type="duplicateValues" dxfId="133" priority="228" stopIfTrue="1"/>
+    <cfRule type="expression" dxfId="132" priority="229" stopIfTrue="1">
       <formula>AND(COUNTIF($B$1:$B$318, B2)&gt;1,NOT(ISBLANK(B2)))</formula>
     </cfRule>
-    <cfRule type="duplicateValues" dxfId="128" priority="227" stopIfTrue="1"/>
-    <cfRule type="duplicateValues" dxfId="127" priority="226" stopIfTrue="1"/>
+    <cfRule type="duplicateValues" dxfId="131" priority="226" stopIfTrue="1"/>
+    <cfRule type="duplicateValues" dxfId="130" priority="227" stopIfTrue="1"/>
+    <cfRule type="duplicateValues" dxfId="129" priority="225" stopIfTrue="1"/>
+    <cfRule type="expression" dxfId="128" priority="224" stopIfTrue="1">
+      <formula>AND(COUNTIF($B$1:$B$318, B2)&gt;1,NOT(ISBLANK(B2)))</formula>
+    </cfRule>
+    <cfRule type="duplicateValues" dxfId="127" priority="223" stopIfTrue="1"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="B3">
-    <cfRule type="duplicateValues" dxfId="126" priority="235" stopIfTrue="1"/>
-    <cfRule type="duplicateValues" dxfId="125" priority="231" stopIfTrue="1"/>
-    <cfRule type="duplicateValues" dxfId="124" priority="236" stopIfTrue="1"/>
-    <cfRule type="duplicateValues" dxfId="123" priority="237" stopIfTrue="1"/>
-    <cfRule type="duplicateValues" dxfId="122" priority="238" stopIfTrue="1"/>
-    <cfRule type="expression" dxfId="121" priority="234" stopIfTrue="1">
+    <cfRule type="duplicateValues" dxfId="126" priority="232" stopIfTrue="1"/>
+    <cfRule type="duplicateValues" dxfId="125" priority="230" stopIfTrue="1"/>
+    <cfRule type="duplicateValues" dxfId="124" priority="231" stopIfTrue="1"/>
+    <cfRule type="duplicateValues" dxfId="123" priority="233" stopIfTrue="1"/>
+    <cfRule type="duplicateValues" dxfId="122" priority="236" stopIfTrue="1"/>
+    <cfRule type="duplicateValues" dxfId="121" priority="238" stopIfTrue="1"/>
+    <cfRule type="expression" dxfId="120" priority="234" stopIfTrue="1">
       <formula>AND(COUNTIF($B$1:$B$318, B3)&gt;1,NOT(ISBLANK(B3)))</formula>
     </cfRule>
-    <cfRule type="duplicateValues" dxfId="120" priority="233" stopIfTrue="1"/>
-    <cfRule type="duplicateValues" dxfId="119" priority="232" stopIfTrue="1"/>
-    <cfRule type="duplicateValues" dxfId="118" priority="230" stopIfTrue="1"/>
+    <cfRule type="duplicateValues" dxfId="119" priority="237" stopIfTrue="1"/>
+    <cfRule type="duplicateValues" dxfId="118" priority="235" stopIfTrue="1"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="B3:B24">
     <cfRule type="expression" dxfId="117" priority="239" stopIfTrue="1">
@@ -3222,10 +3237,10 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B4">
-    <cfRule type="duplicateValues" dxfId="116" priority="148" stopIfTrue="1"/>
+    <cfRule type="duplicateValues" dxfId="116" priority="146" stopIfTrue="1"/>
     <cfRule type="duplicateValues" dxfId="115" priority="145" stopIfTrue="1"/>
-    <cfRule type="duplicateValues" dxfId="114" priority="147" stopIfTrue="1"/>
-    <cfRule type="duplicateValues" dxfId="113" priority="146" stopIfTrue="1"/>
+    <cfRule type="duplicateValues" dxfId="114" priority="148" stopIfTrue="1"/>
+    <cfRule type="duplicateValues" dxfId="113" priority="147" stopIfTrue="1"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="B4:B14">
     <cfRule type="expression" dxfId="112" priority="240" stopIfTrue="1">
@@ -3234,24 +3249,24 @@
   </conditionalFormatting>
   <conditionalFormatting sqref="B5">
     <cfRule type="duplicateValues" dxfId="111" priority="144" stopIfTrue="1"/>
-    <cfRule type="duplicateValues" dxfId="110" priority="141" stopIfTrue="1"/>
-    <cfRule type="duplicateValues" dxfId="109" priority="142" stopIfTrue="1"/>
+    <cfRule type="duplicateValues" dxfId="110" priority="142" stopIfTrue="1"/>
+    <cfRule type="duplicateValues" dxfId="109" priority="141" stopIfTrue="1"/>
     <cfRule type="duplicateValues" dxfId="108" priority="143" stopIfTrue="1"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="B6">
-    <cfRule type="duplicateValues" dxfId="107" priority="140" stopIfTrue="1"/>
-    <cfRule type="duplicateValues" dxfId="106" priority="139" stopIfTrue="1"/>
+    <cfRule type="duplicateValues" dxfId="107" priority="139" stopIfTrue="1"/>
+    <cfRule type="duplicateValues" dxfId="106" priority="137" stopIfTrue="1"/>
     <cfRule type="duplicateValues" dxfId="105" priority="138" stopIfTrue="1"/>
-    <cfRule type="duplicateValues" dxfId="104" priority="137" stopIfTrue="1"/>
+    <cfRule type="duplicateValues" dxfId="104" priority="140" stopIfTrue="1"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="B7">
     <cfRule type="duplicateValues" dxfId="103" priority="45" stopIfTrue="1"/>
     <cfRule type="duplicateValues" dxfId="102" priority="44" stopIfTrue="1"/>
-    <cfRule type="duplicateValues" dxfId="101" priority="42" stopIfTrue="1"/>
-    <cfRule type="duplicateValues" dxfId="100" priority="43" stopIfTrue="1"/>
-    <cfRule type="duplicateValues" dxfId="99" priority="107" stopIfTrue="1"/>
-    <cfRule type="duplicateValues" dxfId="98" priority="105" stopIfTrue="1"/>
-    <cfRule type="duplicateValues" dxfId="97" priority="106" stopIfTrue="1"/>
+    <cfRule type="duplicateValues" dxfId="101" priority="43" stopIfTrue="1"/>
+    <cfRule type="duplicateValues" dxfId="100" priority="42" stopIfTrue="1"/>
+    <cfRule type="duplicateValues" dxfId="99" priority="105" stopIfTrue="1"/>
+    <cfRule type="duplicateValues" dxfId="98" priority="106" stopIfTrue="1"/>
+    <cfRule type="duplicateValues" dxfId="97" priority="107" stopIfTrue="1"/>
     <cfRule type="duplicateValues" dxfId="96" priority="108" stopIfTrue="1"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="B8">
@@ -3259,56 +3274,56 @@
     <cfRule type="duplicateValues" dxfId="94" priority="39" stopIfTrue="1"/>
     <cfRule type="duplicateValues" dxfId="93" priority="40" stopIfTrue="1"/>
     <cfRule type="duplicateValues" dxfId="92" priority="101" stopIfTrue="1"/>
-    <cfRule type="duplicateValues" dxfId="91" priority="102" stopIfTrue="1"/>
-    <cfRule type="duplicateValues" dxfId="90" priority="103" stopIfTrue="1"/>
-    <cfRule type="duplicateValues" dxfId="89" priority="104" stopIfTrue="1"/>
+    <cfRule type="duplicateValues" dxfId="91" priority="103" stopIfTrue="1"/>
+    <cfRule type="duplicateValues" dxfId="90" priority="104" stopIfTrue="1"/>
+    <cfRule type="duplicateValues" dxfId="89" priority="102" stopIfTrue="1"/>
     <cfRule type="duplicateValues" dxfId="88" priority="37" stopIfTrue="1"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="B9">
-    <cfRule type="duplicateValues" dxfId="87" priority="136" stopIfTrue="1"/>
-    <cfRule type="duplicateValues" dxfId="86" priority="135" stopIfTrue="1"/>
-    <cfRule type="duplicateValues" dxfId="85" priority="134" stopIfTrue="1"/>
-    <cfRule type="duplicateValues" dxfId="84" priority="133" stopIfTrue="1"/>
+    <cfRule type="duplicateValues" dxfId="87" priority="133" stopIfTrue="1"/>
+    <cfRule type="duplicateValues" dxfId="86" priority="134" stopIfTrue="1"/>
+    <cfRule type="duplicateValues" dxfId="85" priority="135" stopIfTrue="1"/>
+    <cfRule type="duplicateValues" dxfId="84" priority="136" stopIfTrue="1"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="B10">
-    <cfRule type="duplicateValues" dxfId="83" priority="131" stopIfTrue="1"/>
+    <cfRule type="duplicateValues" dxfId="83" priority="132" stopIfTrue="1"/>
     <cfRule type="duplicateValues" dxfId="82" priority="129" stopIfTrue="1"/>
     <cfRule type="duplicateValues" dxfId="81" priority="130" stopIfTrue="1"/>
-    <cfRule type="duplicateValues" dxfId="80" priority="132" stopIfTrue="1"/>
+    <cfRule type="duplicateValues" dxfId="80" priority="131" stopIfTrue="1"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="B11">
-    <cfRule type="duplicateValues" dxfId="79" priority="128" stopIfTrue="1"/>
-    <cfRule type="duplicateValues" dxfId="78" priority="127" stopIfTrue="1"/>
-    <cfRule type="duplicateValues" dxfId="77" priority="125" stopIfTrue="1"/>
-    <cfRule type="duplicateValues" dxfId="76" priority="126" stopIfTrue="1"/>
+    <cfRule type="duplicateValues" dxfId="79" priority="127" stopIfTrue="1"/>
+    <cfRule type="duplicateValues" dxfId="78" priority="128" stopIfTrue="1"/>
+    <cfRule type="duplicateValues" dxfId="77" priority="126" stopIfTrue="1"/>
+    <cfRule type="duplicateValues" dxfId="76" priority="125" stopIfTrue="1"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="B12">
-    <cfRule type="duplicateValues" dxfId="75" priority="121" stopIfTrue="1"/>
-    <cfRule type="duplicateValues" dxfId="74" priority="122" stopIfTrue="1"/>
-    <cfRule type="duplicateValues" dxfId="73" priority="123" stopIfTrue="1"/>
-    <cfRule type="duplicateValues" dxfId="72" priority="124" stopIfTrue="1"/>
+    <cfRule type="duplicateValues" dxfId="75" priority="123" stopIfTrue="1"/>
+    <cfRule type="duplicateValues" dxfId="74" priority="124" stopIfTrue="1"/>
+    <cfRule type="duplicateValues" dxfId="73" priority="122" stopIfTrue="1"/>
+    <cfRule type="duplicateValues" dxfId="72" priority="121" stopIfTrue="1"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="B13">
-    <cfRule type="duplicateValues" dxfId="71" priority="118" stopIfTrue="1"/>
+    <cfRule type="duplicateValues" dxfId="71" priority="120" stopIfTrue="1"/>
     <cfRule type="duplicateValues" dxfId="70" priority="119" stopIfTrue="1"/>
-    <cfRule type="duplicateValues" dxfId="69" priority="120" stopIfTrue="1"/>
+    <cfRule type="duplicateValues" dxfId="69" priority="118" stopIfTrue="1"/>
     <cfRule type="duplicateValues" dxfId="68" priority="117" stopIfTrue="1"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="B14">
-    <cfRule type="duplicateValues" dxfId="67" priority="113" stopIfTrue="1"/>
-    <cfRule type="duplicateValues" dxfId="66" priority="116" stopIfTrue="1"/>
-    <cfRule type="duplicateValues" dxfId="65" priority="115" stopIfTrue="1"/>
-    <cfRule type="duplicateValues" dxfId="64" priority="114" stopIfTrue="1"/>
+    <cfRule type="duplicateValues" dxfId="67" priority="116" stopIfTrue="1"/>
+    <cfRule type="duplicateValues" dxfId="66" priority="115" stopIfTrue="1"/>
+    <cfRule type="duplicateValues" dxfId="65" priority="114" stopIfTrue="1"/>
+    <cfRule type="duplicateValues" dxfId="64" priority="113" stopIfTrue="1"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="B15">
-    <cfRule type="duplicateValues" dxfId="63" priority="97" stopIfTrue="1"/>
-    <cfRule type="duplicateValues" dxfId="62" priority="100" stopIfTrue="1"/>
-    <cfRule type="duplicateValues" dxfId="61" priority="98" stopIfTrue="1"/>
-    <cfRule type="duplicateValues" dxfId="60" priority="99" stopIfTrue="1"/>
+    <cfRule type="duplicateValues" dxfId="63" priority="99" stopIfTrue="1"/>
+    <cfRule type="duplicateValues" dxfId="62" priority="98" stopIfTrue="1"/>
+    <cfRule type="duplicateValues" dxfId="61" priority="97" stopIfTrue="1"/>
+    <cfRule type="duplicateValues" dxfId="60" priority="100" stopIfTrue="1"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="B15:B16">
-    <cfRule type="duplicateValues" dxfId="59" priority="242" stopIfTrue="1"/>
-    <cfRule type="duplicateValues" dxfId="58" priority="241" stopIfTrue="1"/>
+    <cfRule type="duplicateValues" dxfId="59" priority="241" stopIfTrue="1"/>
+    <cfRule type="duplicateValues" dxfId="58" priority="242" stopIfTrue="1"/>
     <cfRule type="duplicateValues" dxfId="57" priority="243" stopIfTrue="1"/>
     <cfRule type="duplicateValues" dxfId="56" priority="244" stopIfTrue="1"/>
     <cfRule type="expression" dxfId="55" priority="245" stopIfTrue="1">
@@ -3316,10 +3331,10 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B16">
-    <cfRule type="duplicateValues" dxfId="54" priority="96" stopIfTrue="1"/>
-    <cfRule type="duplicateValues" dxfId="53" priority="95" stopIfTrue="1"/>
-    <cfRule type="duplicateValues" dxfId="52" priority="94" stopIfTrue="1"/>
-    <cfRule type="duplicateValues" dxfId="51" priority="93" stopIfTrue="1"/>
+    <cfRule type="duplicateValues" dxfId="54" priority="95" stopIfTrue="1"/>
+    <cfRule type="duplicateValues" dxfId="53" priority="94" stopIfTrue="1"/>
+    <cfRule type="duplicateValues" dxfId="52" priority="93" stopIfTrue="1"/>
+    <cfRule type="duplicateValues" dxfId="51" priority="96" stopIfTrue="1"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="B17">
     <cfRule type="duplicateValues" dxfId="50" priority="246" stopIfTrue="1"/>
@@ -3335,43 +3350,43 @@
     <cfRule type="duplicateValues" dxfId="42" priority="254" stopIfTrue="1"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="B18">
-    <cfRule type="duplicateValues" dxfId="41" priority="85" stopIfTrue="1"/>
+    <cfRule type="duplicateValues" dxfId="41" priority="88" stopIfTrue="1"/>
     <cfRule type="duplicateValues" dxfId="40" priority="87" stopIfTrue="1"/>
     <cfRule type="duplicateValues" dxfId="39" priority="86" stopIfTrue="1"/>
-    <cfRule type="duplicateValues" dxfId="38" priority="88" stopIfTrue="1"/>
+    <cfRule type="duplicateValues" dxfId="38" priority="85" stopIfTrue="1"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="B19">
-    <cfRule type="duplicateValues" dxfId="37" priority="84" stopIfTrue="1"/>
+    <cfRule type="duplicateValues" dxfId="37" priority="82" stopIfTrue="1"/>
     <cfRule type="duplicateValues" dxfId="36" priority="83" stopIfTrue="1"/>
-    <cfRule type="duplicateValues" dxfId="35" priority="82" stopIfTrue="1"/>
+    <cfRule type="duplicateValues" dxfId="35" priority="84" stopIfTrue="1"/>
     <cfRule type="duplicateValues" dxfId="34" priority="81" stopIfTrue="1"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="B20:B24">
-    <cfRule type="duplicateValues" dxfId="33" priority="77" stopIfTrue="1"/>
-    <cfRule type="duplicateValues" dxfId="32" priority="80" stopIfTrue="1"/>
-    <cfRule type="duplicateValues" dxfId="31" priority="79" stopIfTrue="1"/>
-    <cfRule type="duplicateValues" dxfId="30" priority="78" stopIfTrue="1"/>
+    <cfRule type="duplicateValues" dxfId="33" priority="80" stopIfTrue="1"/>
+    <cfRule type="duplicateValues" dxfId="32" priority="79" stopIfTrue="1"/>
+    <cfRule type="duplicateValues" dxfId="31" priority="78" stopIfTrue="1"/>
+    <cfRule type="duplicateValues" dxfId="30" priority="77" stopIfTrue="1"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="B21">
-    <cfRule type="expression" dxfId="29" priority="255" stopIfTrue="1">
+    <cfRule type="duplicateValues" dxfId="29" priority="263" stopIfTrue="1"/>
+    <cfRule type="duplicateValues" dxfId="28" priority="264" stopIfTrue="1"/>
+    <cfRule type="expression" dxfId="27" priority="255" stopIfTrue="1">
       <formula>AND(COUNTIF($B$1:$B$140, B21)&gt;1,NOT(ISBLANK(B21)))</formula>
     </cfRule>
-    <cfRule type="duplicateValues" dxfId="28" priority="256" stopIfTrue="1"/>
-    <cfRule type="duplicateValues" dxfId="27" priority="257" stopIfTrue="1"/>
-    <cfRule type="duplicateValues" dxfId="26" priority="258" stopIfTrue="1"/>
-    <cfRule type="duplicateValues" dxfId="25" priority="259" stopIfTrue="1"/>
-    <cfRule type="expression" dxfId="24" priority="260" stopIfTrue="1">
+    <cfRule type="duplicateValues" dxfId="26" priority="256" stopIfTrue="1"/>
+    <cfRule type="duplicateValues" dxfId="25" priority="257" stopIfTrue="1"/>
+    <cfRule type="duplicateValues" dxfId="24" priority="258" stopIfTrue="1"/>
+    <cfRule type="duplicateValues" dxfId="23" priority="259" stopIfTrue="1"/>
+    <cfRule type="expression" dxfId="22" priority="260" stopIfTrue="1">
       <formula>AND(COUNTIF($B$1:$B$140, B21)&gt;1,NOT(ISBLANK(B21)))</formula>
     </cfRule>
-    <cfRule type="duplicateValues" dxfId="23" priority="261" stopIfTrue="1"/>
-    <cfRule type="duplicateValues" dxfId="22" priority="262" stopIfTrue="1"/>
-    <cfRule type="duplicateValues" dxfId="21" priority="263" stopIfTrue="1"/>
-    <cfRule type="duplicateValues" dxfId="20" priority="264" stopIfTrue="1"/>
+    <cfRule type="duplicateValues" dxfId="21" priority="261" stopIfTrue="1"/>
+    <cfRule type="duplicateValues" dxfId="20" priority="262" stopIfTrue="1"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="B22">
-    <cfRule type="duplicateValues" dxfId="19" priority="265" stopIfTrue="1"/>
+    <cfRule type="duplicateValues" dxfId="19" priority="267" stopIfTrue="1"/>
     <cfRule type="duplicateValues" dxfId="18" priority="266" stopIfTrue="1"/>
-    <cfRule type="duplicateValues" dxfId="17" priority="267" stopIfTrue="1"/>
+    <cfRule type="duplicateValues" dxfId="17" priority="265" stopIfTrue="1"/>
     <cfRule type="duplicateValues" dxfId="16" priority="268" stopIfTrue="1"/>
     <cfRule type="expression" dxfId="15" priority="269" stopIfTrue="1">
       <formula>AND(COUNTIF($B$1:$B$343, B22)&gt;1,NOT(ISBLANK(B22)))</formula>
@@ -3387,22 +3402,22 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B24">
-    <cfRule type="duplicateValues" dxfId="9" priority="275" stopIfTrue="1"/>
-    <cfRule type="duplicateValues" dxfId="8" priority="276" stopIfTrue="1"/>
-    <cfRule type="duplicateValues" dxfId="7" priority="277" stopIfTrue="1"/>
-    <cfRule type="duplicateValues" dxfId="6" priority="278" stopIfTrue="1"/>
-    <cfRule type="expression" dxfId="5" priority="279" stopIfTrue="1">
+    <cfRule type="expression" dxfId="9" priority="279" stopIfTrue="1">
       <formula>AND(COUNTIF($B$1:$B$343, B24)&gt;1,NOT(ISBLANK(B24)))</formula>
     </cfRule>
+    <cfRule type="duplicateValues" dxfId="8" priority="275" stopIfTrue="1"/>
+    <cfRule type="duplicateValues" dxfId="7" priority="276" stopIfTrue="1"/>
+    <cfRule type="duplicateValues" dxfId="6" priority="277" stopIfTrue="1"/>
+    <cfRule type="duplicateValues" dxfId="5" priority="278" stopIfTrue="1"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="B31">
-    <cfRule type="duplicateValues" dxfId="4" priority="1" stopIfTrue="1"/>
+    <cfRule type="expression" dxfId="4" priority="5" stopIfTrue="1">
+      <formula>AND(COUNTIF($B$1:$B$131, B31)&gt;1,NOT(ISBLANK(B31)))</formula>
+    </cfRule>
     <cfRule type="duplicateValues" dxfId="3" priority="2" stopIfTrue="1"/>
     <cfRule type="duplicateValues" dxfId="2" priority="3" stopIfTrue="1"/>
     <cfRule type="duplicateValues" dxfId="1" priority="4" stopIfTrue="1"/>
-    <cfRule type="expression" dxfId="0" priority="5" stopIfTrue="1">
-      <formula>AND(COUNTIF($B$1:$B$131, B31)&gt;1,NOT(ISBLANK(B31)))</formula>
-    </cfRule>
+    <cfRule type="duplicateValues" dxfId="0" priority="1" stopIfTrue="1"/>
   </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/public/Data/non-teaching.xlsx
+++ b/public/Data/non-teaching.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Kaushik\OneDrive\Desktop\CVR final\CVR-CSE\public\Data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2F76AE45-FCEA-4B35-8EB0-2E04DE06CA23}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A4970630-9754-449A-AA93-1978D7E4BBC7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{78634B72-DAAC-403F-A2A1-7EDC8EC2B134}"/>
   </bookViews>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="144" uniqueCount="107">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="149" uniqueCount="111">
   <si>
     <t>Sl. No.</t>
   </si>
@@ -356,7 +356,19 @@
     <t>vanitha</t>
   </si>
   <si>
-    <t>sumalatha</t>
+    <t>srilatha</t>
+  </si>
+  <si>
+    <t>manjula</t>
+  </si>
+  <si>
+    <t>kartheeka</t>
+  </si>
+  <si>
+    <t>vijaya lakshmi</t>
+  </si>
+  <si>
+    <t>rama prabha</t>
   </si>
 </sst>
 </file>
@@ -2562,8 +2574,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{866DEEA3-36C1-4E7D-A645-9FE7ADE932DD}">
   <dimension ref="A1:F36"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A11" workbookViewId="0">
-      <selection activeCell="F29" sqref="F29"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="F9" sqref="F9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -2669,7 +2681,9 @@
       <c r="E5" s="5" t="s">
         <v>19</v>
       </c>
-      <c r="F5" s="5"/>
+      <c r="F5" s="5" t="s">
+        <v>109</v>
+      </c>
     </row>
     <row r="6" spans="1:6" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A6" s="2">
@@ -2727,7 +2741,9 @@
       <c r="E8" s="5" t="s">
         <v>28</v>
       </c>
-      <c r="F8" s="5"/>
+      <c r="F8" s="5" t="s">
+        <v>106</v>
+      </c>
     </row>
     <row r="9" spans="1:6" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A9" s="2">
@@ -2745,7 +2761,9 @@
       <c r="E9" s="5" t="s">
         <v>31</v>
       </c>
-      <c r="F9" s="5"/>
+      <c r="F9" s="5" t="s">
+        <v>110</v>
+      </c>
     </row>
     <row r="10" spans="1:6" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A10" s="2">
@@ -2823,7 +2841,9 @@
       <c r="E13" s="5" t="s">
         <v>40</v>
       </c>
-      <c r="F13" s="5"/>
+      <c r="F13" s="5" t="s">
+        <v>108</v>
+      </c>
     </row>
     <row r="14" spans="1:6" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A14" s="2">
@@ -2959,7 +2979,9 @@
       <c r="E20" s="5" t="s">
         <v>63</v>
       </c>
-      <c r="F20" s="5"/>
+      <c r="F20" s="5" t="s">
+        <v>107</v>
+      </c>
     </row>
     <row r="21" spans="1:6" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A21" s="2">
@@ -3142,7 +3164,7 @@
         <v>94</v>
       </c>
       <c r="F30" t="s">
-        <v>92</v>
+        <v>106</v>
       </c>
     </row>
     <row r="31" spans="1:6" ht="15.6" x14ac:dyDescent="0.3">

--- a/public/Data/non-teaching.xlsx
+++ b/public/Data/non-teaching.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Kaushik\OneDrive\Desktop\CVR final\CVR-CSE\public\Data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A4970630-9754-449A-AA93-1978D7E4BBC7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3C1B7E0B-6386-4263-8F45-15A7A2D163EE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{78634B72-DAAC-403F-A2A1-7EDC8EC2B134}"/>
   </bookViews>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="149" uniqueCount="111">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="151" uniqueCount="113">
   <si>
     <t>Sl. No.</t>
   </si>
@@ -369,6 +369,12 @@
   </si>
   <si>
     <t>rama prabha</t>
+  </si>
+  <si>
+    <t>indumathi</t>
+  </si>
+  <si>
+    <t>navin kumar</t>
   </si>
 </sst>
 </file>
@@ -2574,8 +2580,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{866DEEA3-36C1-4E7D-A645-9FE7ADE932DD}">
   <dimension ref="A1:F36"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F9" sqref="F9"/>
+    <sheetView tabSelected="1" topLeftCell="A9" workbookViewId="0">
+      <selection activeCell="F32" sqref="F32"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -2901,7 +2907,9 @@
       <c r="E16" s="5" t="s">
         <v>51</v>
       </c>
-      <c r="F16" s="5"/>
+      <c r="F16" s="5" t="s">
+        <v>111</v>
+      </c>
     </row>
     <row r="17" spans="1:6" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A17" s="2">
@@ -3203,7 +3211,9 @@
       <c r="E32" s="19" t="s">
         <v>102</v>
       </c>
-      <c r="F32" s="5"/>
+      <c r="F32" s="5" t="s">
+        <v>112</v>
+      </c>
     </row>
     <row r="33" spans="1:6" x14ac:dyDescent="0.3">
       <c r="D33"/>

--- a/public/Data/non-teaching.xlsx
+++ b/public/Data/non-teaching.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Kaushik\OneDrive\Desktop\CVR final\CVR-CSE\public\Data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3C1B7E0B-6386-4263-8F45-15A7A2D163EE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BB7A3B7E-9F1F-4CFD-85AD-B54CA0F49031}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{78634B72-DAAC-403F-A2A1-7EDC8EC2B134}"/>
   </bookViews>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="151" uniqueCount="113">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="151" uniqueCount="114">
   <si>
     <t>Sl. No.</t>
   </si>
@@ -375,6 +375,9 @@
   </si>
   <si>
     <t>navin kumar</t>
+  </si>
+  <si>
+    <t>sumalatha</t>
   </si>
 </sst>
 </file>
@@ -2580,8 +2583,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{866DEEA3-36C1-4E7D-A645-9FE7ADE932DD}">
   <dimension ref="A1:F36"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A9" workbookViewId="0">
-      <selection activeCell="F32" sqref="F32"/>
+    <sheetView tabSelected="1" topLeftCell="A16" workbookViewId="0">
+      <selection activeCell="F29" sqref="F29"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -3152,7 +3155,7 @@
         <v>46008</v>
       </c>
       <c r="F29" s="5" t="s">
-        <v>106</v>
+        <v>113</v>
       </c>
     </row>
     <row r="30" spans="1:6" ht="15.6" x14ac:dyDescent="0.3">
@@ -3172,7 +3175,7 @@
         <v>94</v>
       </c>
       <c r="F30" t="s">
-        <v>106</v>
+        <v>92</v>
       </c>
     </row>
     <row r="31" spans="1:6" ht="15.6" x14ac:dyDescent="0.3">

--- a/public/Data/non-teaching.xlsx
+++ b/public/Data/non-teaching.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Kaushik\OneDrive\Desktop\CVR final\CVR-CSE\public\Data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BB7A3B7E-9F1F-4CFD-85AD-B54CA0F49031}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7A6BBC3A-DDA9-40AC-B649-E138B02E2A28}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{78634B72-DAAC-403F-A2A1-7EDC8EC2B134}"/>
   </bookViews>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="151" uniqueCount="114">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="152" uniqueCount="115">
   <si>
     <t>Sl. No.</t>
   </si>
@@ -378,6 +378,9 @@
   </si>
   <si>
     <t>sumalatha</t>
+  </si>
+  <si>
+    <t>sony</t>
   </si>
 </sst>
 </file>
@@ -2583,8 +2586,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{866DEEA3-36C1-4E7D-A645-9FE7ADE932DD}">
   <dimension ref="A1:F36"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A16" workbookViewId="0">
-      <selection activeCell="F29" sqref="F29"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="F2" sqref="F2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -2632,7 +2635,9 @@
       <c r="E2" s="5" t="s">
         <v>8</v>
       </c>
-      <c r="F2" s="5"/>
+      <c r="F2" s="5" t="s">
+        <v>114</v>
+      </c>
     </row>
     <row r="3" spans="1:6" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A3" s="2">

--- a/public/Data/non-teaching.xlsx
+++ b/public/Data/non-teaching.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="151" uniqueCount="114">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="152" uniqueCount="115">
   <si>
     <t>Sl. No.</t>
   </si>
@@ -44,6 +44,9 @@
   </si>
   <si>
     <t>5th July 2007</t>
+  </si>
+  <si>
+    <t>Sony Progammer</t>
   </si>
   <si>
     <t>CVRCSEN054</t>
@@ -365,7 +368,7 @@
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="dd-mm-yyyy"/>
   </numFmts>
-  <fonts count="7" x14ac:knownFonts="1">
+  <fonts count="6" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -387,12 +390,6 @@
       <family val="2"/>
     </font>
     <font>
-      <sz val="12"/>
-      <color theme="1"/>
-      <name val="Times New Roman"/>
-      <family val="2"/>
-    </font>
-    <font>
       <sz val="11"/>
       <color rgb="FF000000"/>
       <name val="Times New Roman"/>
@@ -406,10 +403,9 @@
       <family val="2"/>
     </font>
     <font>
-      <b/>
-      <sz val="12"/>
+      <sz val="11"/>
       <color theme="1"/>
-      <name val="Cambria"/>
+      <name val="Calibri"/>
       <family val="2"/>
     </font>
   </fonts>
@@ -460,7 +456,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="31">
+  <cellXfs count="30">
     <xf xfId="0" numFmtId="0" borderId="0" fontId="0" fillId="0"/>
     <xf xfId="0" numFmtId="0" borderId="0" fontId="0" fillId="0" applyAlignment="1">
       <alignment wrapText="1"/>
@@ -492,7 +488,7 @@
     <xf xfId="0" numFmtId="0" borderId="1" applyBorder="1" fontId="2" applyFont="1" fillId="0" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf xfId="0" numFmtId="0" borderId="1" applyBorder="1" fontId="3" applyFont="1" fillId="2" applyFill="1" applyAlignment="1">
+    <xf xfId="0" numFmtId="0" borderId="1" applyBorder="1" fontId="2" applyFont="1" fillId="2" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf xfId="0" numFmtId="0" borderId="1" applyBorder="1" fontId="2" applyFont="1" fillId="2" applyFill="1" applyAlignment="1">
@@ -504,53 +500,50 @@
     <xf xfId="0" numFmtId="3" applyNumberFormat="1" borderId="1" applyBorder="1" fontId="2" applyFont="1" fillId="2" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
-    <xf xfId="0" numFmtId="1" applyNumberFormat="1" borderId="1" applyBorder="1" fontId="4" applyFont="1" fillId="0" applyAlignment="1">
+    <xf xfId="0" numFmtId="1" applyNumberFormat="1" borderId="1" applyBorder="1" fontId="3" applyFont="1" fillId="0" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf xfId="0" numFmtId="164" applyNumberFormat="1" borderId="1" applyBorder="1" fontId="4" applyFont="1" fillId="0" applyAlignment="1">
+    <xf xfId="0" numFmtId="164" applyNumberFormat="1" borderId="1" applyBorder="1" fontId="3" applyFont="1" fillId="0" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf xfId="0" numFmtId="3" applyNumberFormat="1" borderId="1" applyBorder="1" fontId="5" applyFont="1" fillId="0" applyAlignment="1">
+    <xf xfId="0" numFmtId="3" applyNumberFormat="1" borderId="1" applyBorder="1" fontId="4" applyFont="1" fillId="0" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
     <xf xfId="0" numFmtId="0" borderId="0" fontId="0" fillId="0" applyAlignment="1">
-      <alignment horizontal="general"/>
-    </xf>
-    <xf xfId="0" numFmtId="3" applyNumberFormat="1" borderId="1" applyBorder="1" fontId="6" applyFont="1" fillId="0" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
+      <alignment horizontal="left"/>
+    </xf>
+    <xf xfId="0" numFmtId="3" applyNumberFormat="1" borderId="2" applyBorder="1" fontId="5" applyFont="1" fillId="0" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf xfId="0" numFmtId="0" borderId="2" applyBorder="1" fontId="5" applyFont="1" fillId="0" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf xfId="0" numFmtId="1" applyNumberFormat="1" borderId="2" applyBorder="1" fontId="5" applyFont="1" fillId="0" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf xfId="0" numFmtId="3" applyNumberFormat="1" borderId="2" applyBorder="1" fontId="3" applyFont="1" fillId="0" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf xfId="0" numFmtId="0" borderId="2" applyBorder="1" fontId="3" applyFont="1" fillId="0" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf xfId="0" numFmtId="0" borderId="2" applyBorder="1" fontId="3" applyFont="1" fillId="0" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf xfId="0" numFmtId="1" applyNumberFormat="1" borderId="2" applyBorder="1" fontId="3" applyFont="1" fillId="0" applyAlignment="1">
+      <alignment horizontal="left"/>
     </xf>
     <xf xfId="0" numFmtId="3" applyNumberFormat="1" borderId="0" fontId="0" fillId="0" applyAlignment="1">
-      <alignment horizontal="general"/>
+      <alignment horizontal="left"/>
+    </xf>
+    <xf xfId="0" numFmtId="0" borderId="0" fontId="0" fillId="0" applyAlignment="1">
+      <alignment horizontal="left"/>
     </xf>
     <xf xfId="0" numFmtId="0" borderId="0" fontId="0" fillId="0" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf xfId="0" numFmtId="1" applyNumberFormat="1" borderId="0" fontId="0" fillId="0" applyAlignment="1">
-      <alignment horizontal="general"/>
-    </xf>
-    <xf xfId="0" numFmtId="3" applyNumberFormat="1" borderId="2" applyBorder="1" fontId="4" applyFont="1" fillId="0" applyAlignment="1">
       <alignment horizontal="left"/>
-    </xf>
-    <xf xfId="0" numFmtId="0" borderId="2" applyBorder="1" fontId="4" applyFont="1" fillId="0" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf xfId="0" numFmtId="0" borderId="2" applyBorder="1" fontId="4" applyFont="1" fillId="0" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf xfId="0" numFmtId="1" applyNumberFormat="1" borderId="2" applyBorder="1" fontId="4" applyFont="1" fillId="0" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf xfId="0" numFmtId="3" applyNumberFormat="1" borderId="0" fontId="0" fillId="0" applyAlignment="1">
-      <alignment horizontal="general"/>
-    </xf>
-    <xf xfId="0" numFmtId="0" borderId="0" fontId="0" fillId="0" applyAlignment="1">
-      <alignment horizontal="general"/>
-    </xf>
-    <xf xfId="0" numFmtId="0" borderId="0" fontId="0" fillId="0" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf xfId="0" numFmtId="1" applyNumberFormat="1" borderId="0" fontId="0" fillId="0" applyAlignment="1">
-      <alignment horizontal="general"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -860,12 +853,12 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" style="27" width="13.576428571428572" customWidth="1" bestFit="1"/>
-    <col min="2" max="2" style="28" width="18.14785714285714" customWidth="1" bestFit="1"/>
-    <col min="3" max="3" style="28" width="31.005" customWidth="1" bestFit="1"/>
-    <col min="4" max="4" style="29" width="19.862142857142857" customWidth="1" bestFit="1"/>
-    <col min="5" max="5" style="30" width="16.433571428571426" customWidth="1" bestFit="1"/>
-    <col min="6" max="6" style="28" width="28.290714285714284" customWidth="1" bestFit="1"/>
+    <col min="1" max="1" style="26" width="13.576428571428572" customWidth="1" bestFit="1"/>
+    <col min="2" max="2" style="27" width="18.14785714285714" customWidth="1" bestFit="1"/>
+    <col min="3" max="3" style="27" width="31.005" customWidth="1" bestFit="1"/>
+    <col min="4" max="4" style="28" width="19.862142857142857" customWidth="1" bestFit="1"/>
+    <col min="5" max="5" style="29" width="16.433571428571426" customWidth="1" bestFit="1"/>
+    <col min="6" max="6" style="27" width="28.290714285714284" customWidth="1" bestFit="1"/>
   </cols>
   <sheetData>
     <row x14ac:dyDescent="0.25" r="1" customHeight="1" ht="18.75" customFormat="1" s="1">
@@ -904,26 +897,28 @@
       <c r="E2" s="9" t="s">
         <v>9</v>
       </c>
-      <c r="F2" s="10"/>
+      <c r="F2" s="10" t="s">
+        <v>10</v>
+      </c>
     </row>
     <row x14ac:dyDescent="0.25" r="3" customHeight="1" ht="18.75">
       <c r="A3" s="6">
         <v>2</v>
       </c>
       <c r="B3" s="11" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="C3" s="12" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="D3" s="8" t="s">
+        <v>13</v>
+      </c>
+      <c r="E3" s="9" t="s">
+        <v>14</v>
+      </c>
+      <c r="F3" s="10" t="s">
         <v>12</v>
-      </c>
-      <c r="E3" s="9" t="s">
-        <v>13</v>
-      </c>
-      <c r="F3" s="10" t="s">
-        <v>11</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="4" customHeight="1" ht="18.75">
@@ -931,19 +926,19 @@
         <v>3</v>
       </c>
       <c r="B4" s="11" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="C4" s="8" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="D4" s="8" t="s">
+        <v>17</v>
+      </c>
+      <c r="E4" s="9" t="s">
+        <v>18</v>
+      </c>
+      <c r="F4" s="10" t="s">
         <v>16</v>
-      </c>
-      <c r="E4" s="9" t="s">
-        <v>17</v>
-      </c>
-      <c r="F4" s="10" t="s">
-        <v>15</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="5" customHeight="1" ht="18.75">
@@ -951,19 +946,19 @@
         <v>4</v>
       </c>
       <c r="B5" s="11" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="C5" s="13" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="D5" s="8" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="E5" s="9" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="F5" s="10" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="6" customHeight="1" ht="18.75">
@@ -971,19 +966,19 @@
         <v>5</v>
       </c>
       <c r="B6" s="11" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="C6" s="12" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="D6" s="8" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="E6" s="9" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="F6" s="10" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="7" customHeight="1" ht="18.75">
@@ -991,19 +986,19 @@
         <v>6</v>
       </c>
       <c r="B7" s="11" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="C7" s="12" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="D7" s="8" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="E7" s="9" t="s">
+        <v>29</v>
+      </c>
+      <c r="F7" s="10" t="s">
         <v>28</v>
-      </c>
-      <c r="F7" s="10" t="s">
-        <v>27</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="8" customHeight="1" ht="18.75">
@@ -1011,19 +1006,19 @@
         <v>7</v>
       </c>
       <c r="B8" s="11" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="C8" s="12" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="D8" s="8" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="E8" s="9" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="F8" s="10" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="9" customHeight="1" ht="18.75">
@@ -1031,19 +1026,19 @@
         <v>8</v>
       </c>
       <c r="B9" s="11" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="C9" s="12" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="D9" s="8" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="E9" s="9" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="F9" s="10" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="10" customHeight="1" ht="18.75">
@@ -1051,19 +1046,19 @@
         <v>9</v>
       </c>
       <c r="B10" s="11" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="C10" s="12" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="D10" s="8" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="E10" s="9" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="F10" s="10" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="11" customHeight="1" ht="18.75">
@@ -1071,19 +1066,19 @@
         <v>10</v>
       </c>
       <c r="B11" s="11" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="C11" s="12" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="D11" s="8" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="E11" s="9" t="s">
+        <v>44</v>
+      </c>
+      <c r="F11" s="10" t="s">
         <v>43</v>
-      </c>
-      <c r="F11" s="10" t="s">
-        <v>42</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="12" customHeight="1" ht="18.75">
@@ -1091,19 +1086,19 @@
         <v>11</v>
       </c>
       <c r="B12" s="11" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="C12" s="13" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="D12" s="8" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="E12" s="9" t="s">
+        <v>47</v>
+      </c>
+      <c r="F12" s="10" t="s">
         <v>46</v>
-      </c>
-      <c r="F12" s="10" t="s">
-        <v>45</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="13" customHeight="1" ht="18.75">
@@ -1111,19 +1106,19 @@
         <v>12</v>
       </c>
       <c r="B13" s="11" t="s">
+        <v>48</v>
+      </c>
+      <c r="C13" s="12" t="s">
+        <v>49</v>
+      </c>
+      <c r="D13" s="8" t="s">
+        <v>17</v>
+      </c>
+      <c r="E13" s="9" t="s">
         <v>47</v>
       </c>
-      <c r="C13" s="12" t="s">
-        <v>48</v>
-      </c>
-      <c r="D13" s="8" t="s">
-        <v>16</v>
-      </c>
-      <c r="E13" s="9" t="s">
-        <v>46</v>
-      </c>
       <c r="F13" s="10" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="14" customHeight="1" ht="18.75">
@@ -1131,19 +1126,19 @@
         <v>13</v>
       </c>
       <c r="B14" s="11" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="C14" s="12" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="D14" s="8" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="E14" s="9" t="s">
+        <v>53</v>
+      </c>
+      <c r="F14" s="10" t="s">
         <v>52</v>
-      </c>
-      <c r="F14" s="10" t="s">
-        <v>51</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="15" customHeight="1" ht="18.75">
@@ -1151,19 +1146,19 @@
         <v>14</v>
       </c>
       <c r="B15" s="11" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="C15" s="12" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="D15" s="8" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="E15" s="9" t="s">
+        <v>56</v>
+      </c>
+      <c r="F15" s="10" t="s">
         <v>55</v>
-      </c>
-      <c r="F15" s="10" t="s">
-        <v>54</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="16" customHeight="1" ht="18.75">
@@ -1171,99 +1166,99 @@
         <v>15</v>
       </c>
       <c r="B16" s="11" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="C16" s="12" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="D16" s="8" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="E16" s="9" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="F16" s="10" t="s">
-        <v>59</v>
-      </c>
-    </row>
-    <row x14ac:dyDescent="0.25" r="17" customHeight="1" ht="18.75">
+        <v>60</v>
+      </c>
+    </row>
+    <row x14ac:dyDescent="0.25" r="17" customHeight="1" ht="19.5">
       <c r="A17" s="6">
         <v>16</v>
       </c>
       <c r="B17" s="11" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="C17" s="12" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="D17" s="8" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="E17" s="9" t="s">
+        <v>63</v>
+      </c>
+      <c r="F17" s="10" t="s">
         <v>62</v>
       </c>
-      <c r="F17" s="10" t="s">
-        <v>61</v>
-      </c>
-    </row>
-    <row x14ac:dyDescent="0.25" r="18" customHeight="1" ht="18.75">
+    </row>
+    <row x14ac:dyDescent="0.25" r="18" customHeight="1" ht="19.5">
       <c r="A18" s="6">
         <v>17</v>
       </c>
       <c r="B18" s="11" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="C18" s="12" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="D18" s="8" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="E18" s="9" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="F18" s="10" t="s">
-        <v>66</v>
-      </c>
-    </row>
-    <row x14ac:dyDescent="0.25" r="19" customHeight="1" ht="18.75">
+        <v>67</v>
+      </c>
+    </row>
+    <row x14ac:dyDescent="0.25" r="19" customHeight="1" ht="19.5">
       <c r="A19" s="6">
         <v>18</v>
       </c>
       <c r="B19" s="11" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="C19" s="12" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="D19" s="8" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="E19" s="9" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="F19" s="10" t="s">
-        <v>70</v>
-      </c>
-    </row>
-    <row x14ac:dyDescent="0.25" r="20" customHeight="1" ht="18.75">
+        <v>71</v>
+      </c>
+    </row>
+    <row x14ac:dyDescent="0.25" r="20" customHeight="1" ht="19.5">
       <c r="A20" s="6">
         <v>19</v>
       </c>
       <c r="B20" s="11" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="C20" s="12" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="D20" s="8" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="E20" s="9" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="F20" s="10" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="21" customHeight="1" ht="19.5">
@@ -1271,19 +1266,19 @@
         <v>20</v>
       </c>
       <c r="B21" s="11" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="C21" s="12" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="D21" s="8" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="E21" s="9" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="F21" s="10" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="22" customHeight="1" ht="19.5">
@@ -1291,19 +1286,19 @@
         <v>21</v>
       </c>
       <c r="B22" s="11" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="C22" s="12" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="D22" s="8" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="E22" s="9" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="F22" s="10" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="23" customHeight="1" ht="19.5">
@@ -1311,19 +1306,19 @@
         <v>22</v>
       </c>
       <c r="B23" s="11" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="C23" s="12" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="D23" s="8" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="E23" s="9" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="F23" s="10" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="24" customHeight="1" ht="19.5">
@@ -1331,19 +1326,19 @@
         <v>23</v>
       </c>
       <c r="B24" s="11" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="C24" s="12" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="D24" s="8" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="E24" s="9" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="F24" s="10" t="s">
-        <v>88</v>
+        <v>89</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="25" customHeight="1" ht="19.5">
@@ -1352,13 +1347,13 @@
       </c>
       <c r="B25" s="7"/>
       <c r="C25" s="12" t="s">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="D25" s="8" t="s">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="E25" s="9" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="F25" s="10"/>
     </row>
@@ -1367,19 +1362,19 @@
         <v>25</v>
       </c>
       <c r="B26" s="7" t="s">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="C26" s="12" t="s">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="D26" s="8" t="s">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="E26" s="9" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="F26" s="10" t="s">
-        <v>95</v>
+        <v>96</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="27" customHeight="1" ht="19.5">
@@ -1388,10 +1383,10 @@
       </c>
       <c r="B27" s="7"/>
       <c r="C27" s="12" t="s">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="D27" s="8" t="s">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="E27" s="15"/>
       <c r="F27" s="10"/>
@@ -1402,14 +1397,14 @@
       </c>
       <c r="B28" s="7"/>
       <c r="C28" s="12" t="s">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="D28" s="8" t="s">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="E28" s="15"/>
       <c r="F28" s="10" t="s">
-        <v>98</v>
+        <v>99</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="29" customHeight="1" ht="20.25">
@@ -1418,16 +1413,16 @@
       </c>
       <c r="B29" s="7"/>
       <c r="C29" s="12" t="s">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="D29" s="8" t="s">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="E29" s="16">
         <v>46008</v>
       </c>
       <c r="F29" s="10" t="s">
-        <v>100</v>
+        <v>101</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="30" customHeight="1" ht="19.5">
@@ -1435,92 +1430,92 @@
         <v>29</v>
       </c>
       <c r="B30" s="7" t="s">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="C30" s="12" t="s">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="D30" s="8" t="s">
+        <v>104</v>
+      </c>
+      <c r="E30" s="9" t="s">
+        <v>105</v>
+      </c>
+      <c r="F30" s="18" t="s">
         <v>103</v>
       </c>
-      <c r="E30" s="9" t="s">
-        <v>104</v>
-      </c>
-      <c r="F30" s="18" t="s">
-        <v>102</v>
-      </c>
     </row>
     <row x14ac:dyDescent="0.25" r="31" customHeight="1" ht="19.5">
-      <c r="A31" s="19">
+      <c r="A31" s="17">
         <v>30</v>
       </c>
       <c r="B31" s="7" t="s">
-        <v>105</v>
+        <v>106</v>
       </c>
       <c r="C31" s="12" t="s">
-        <v>106</v>
+        <v>107</v>
       </c>
       <c r="D31" s="8" t="s">
+        <v>108</v>
+      </c>
+      <c r="E31" s="9" t="s">
+        <v>109</v>
+      </c>
+      <c r="F31" s="18" t="s">
         <v>107</v>
       </c>
-      <c r="E31" s="9" t="s">
-        <v>108</v>
-      </c>
-      <c r="F31" s="18" t="s">
-        <v>106</v>
-      </c>
     </row>
     <row x14ac:dyDescent="0.25" r="32" customHeight="1" ht="33.75">
-      <c r="A32" s="19">
+      <c r="A32" s="17">
         <v>31</v>
       </c>
       <c r="B32" s="7" t="s">
-        <v>109</v>
+        <v>110</v>
       </c>
       <c r="C32" s="12" t="s">
-        <v>110</v>
+        <v>111</v>
       </c>
       <c r="D32" s="8" t="s">
-        <v>111</v>
+        <v>112</v>
       </c>
       <c r="E32" s="9" t="s">
-        <v>112</v>
+        <v>113</v>
       </c>
       <c r="F32" s="10" t="s">
-        <v>113</v>
+        <v>114</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="33" customHeight="1" ht="18.75">
-      <c r="A33" s="20"/>
+      <c r="A33" s="19"/>
       <c r="B33" s="18"/>
       <c r="C33" s="18"/>
-      <c r="D33" s="21"/>
-      <c r="E33" s="22"/>
+      <c r="D33" s="20"/>
+      <c r="E33" s="21"/>
       <c r="F33" s="18"/>
     </row>
     <row x14ac:dyDescent="0.25" r="34" customHeight="1" ht="18.75">
-      <c r="A34" s="20"/>
+      <c r="A34" s="19"/>
       <c r="B34" s="18"/>
       <c r="C34" s="18"/>
-      <c r="D34" s="21"/>
-      <c r="E34" s="22"/>
+      <c r="D34" s="20"/>
+      <c r="E34" s="21"/>
       <c r="F34" s="18"/>
     </row>
     <row x14ac:dyDescent="0.25" r="35" customHeight="1" ht="18.75">
-      <c r="A35" s="20"/>
+      <c r="A35" s="19"/>
       <c r="B35" s="18"/>
       <c r="C35" s="18"/>
-      <c r="D35" s="21"/>
-      <c r="E35" s="22"/>
+      <c r="D35" s="20"/>
+      <c r="E35" s="21"/>
       <c r="F35" s="18"/>
     </row>
     <row x14ac:dyDescent="0.25" r="36" customHeight="1" ht="18.75">
-      <c r="A36" s="23"/>
-      <c r="B36" s="24"/>
-      <c r="C36" s="24"/>
-      <c r="D36" s="25"/>
-      <c r="E36" s="26"/>
-      <c r="F36" s="24"/>
+      <c r="A36" s="22"/>
+      <c r="B36" s="23"/>
+      <c r="C36" s="23"/>
+      <c r="D36" s="24"/>
+      <c r="E36" s="25"/>
+      <c r="F36" s="23"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/public/Data/non-teaching.xlsx
+++ b/public/Data/non-teaching.xlsx
@@ -1,20 +1,26 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion rupBuild="9303" lowestEdited="5" lastEdited="5" appName="xl"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="28526"/>
   <workbookPr/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Kaushik\OneDrive\Desktop\CVR final\CVR-CSE\public\Data\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{892A0E93-3FCC-4D2F-BCD6-19C1F77FD6B1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="480" yWindow="60" windowWidth="18195" windowHeight="8505" activeTab="0"/>
+    <workbookView xWindow="3516" yWindow="3360" windowWidth="17280" windowHeight="8880" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
-    <sheet r:id="rId1" sheetId="1" name="Sheet1"/>
+    <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr fullCalcOnLoad="1"/>
+  <calcPr calcId="0"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="152" uniqueCount="115">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="153" uniqueCount="116">
   <si>
     <t>Sl. No.</t>
   </si>
@@ -359,14 +365,17 @@
   </si>
   <si>
     <t>navin kumar</t>
+  </si>
+  <si>
+    <t>swapna</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" mc:Ignorable="x14ac">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="1">
-    <numFmt numFmtId="164" formatCode="dd-mm-yyyy"/>
+    <numFmt numFmtId="164" formatCode="dd\-mm\-yyyy"/>
   </numFmts>
   <fonts count="6" x14ac:knownFonts="1">
     <font>
@@ -418,7 +427,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFffffff"/>
+        <fgColor rgb="FFFFFFFF"/>
       </patternFill>
     </fill>
   </fills>
@@ -456,104 +465,104 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="30">
-    <xf xfId="0" numFmtId="0" borderId="0" fontId="0" fillId="0"/>
-    <xf xfId="0" numFmtId="0" borderId="0" fontId="0" fillId="0" applyAlignment="1">
+  <cellXfs count="29">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf xfId="0" numFmtId="3" applyNumberFormat="1" borderId="1" applyBorder="1" fontId="1" applyFont="1" fillId="2" applyFill="1" applyAlignment="1">
+    <xf numFmtId="3" fontId="1" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
-    <xf xfId="0" numFmtId="0" borderId="1" applyBorder="1" fontId="1" applyFont="1" fillId="2" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
-    <xf xfId="0" numFmtId="1" applyNumberFormat="1" borderId="1" applyBorder="1" fontId="1" applyFont="1" fillId="0" applyAlignment="1">
+    <xf numFmtId="1" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
-    <xf xfId="0" numFmtId="0" borderId="1" applyBorder="1" fontId="1" applyFont="1" fillId="0" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
-    <xf xfId="0" numFmtId="3" applyNumberFormat="1" borderId="1" applyBorder="1" fontId="1" applyFont="1" fillId="0" applyAlignment="1">
+    <xf numFmtId="3" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
-    <xf xfId="0" numFmtId="0" borderId="1" applyBorder="1" fontId="2" applyFont="1" fillId="2" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
-    <xf xfId="0" numFmtId="0" borderId="1" applyBorder="1" fontId="2" applyFont="1" fillId="0" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" wrapText="1"/>
     </xf>
-    <xf xfId="0" numFmtId="1" applyNumberFormat="1" borderId="1" applyBorder="1" fontId="2" applyFont="1" fillId="0" applyAlignment="1">
+    <xf numFmtId="1" fontId="2" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf xfId="0" numFmtId="0" borderId="1" applyBorder="1" fontId="2" applyFont="1" fillId="0" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf xfId="0" numFmtId="0" borderId="1" applyBorder="1" fontId="2" applyFont="1" fillId="2" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf xfId="0" numFmtId="0" borderId="1" applyBorder="1" fontId="2" applyFont="1" fillId="2" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" wrapText="1"/>
     </xf>
-    <xf xfId="0" numFmtId="0" borderId="1" applyBorder="1" fontId="2" applyFont="1" fillId="2" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf xfId="0" numFmtId="3" applyNumberFormat="1" borderId="1" applyBorder="1" fontId="2" applyFont="1" fillId="2" applyFill="1" applyAlignment="1">
+    <xf numFmtId="3" fontId="2" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
-    <xf xfId="0" numFmtId="1" applyNumberFormat="1" borderId="1" applyBorder="1" fontId="3" applyFont="1" fillId="0" applyAlignment="1">
+    <xf numFmtId="1" fontId="3" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf xfId="0" numFmtId="164" applyNumberFormat="1" borderId="1" applyBorder="1" fontId="3" applyFont="1" fillId="0" applyAlignment="1">
+    <xf numFmtId="164" fontId="3" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf xfId="0" numFmtId="3" applyNumberFormat="1" borderId="1" applyBorder="1" fontId="4" applyFont="1" fillId="0" applyAlignment="1">
+    <xf numFmtId="3" fontId="4" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
-    <xf xfId="0" numFmtId="0" borderId="0" fontId="0" fillId="0" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf xfId="0" numFmtId="3" applyNumberFormat="1" borderId="2" applyBorder="1" fontId="5" applyFont="1" fillId="0" applyAlignment="1">
+    <xf numFmtId="3" fontId="5" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf xfId="0" numFmtId="0" borderId="2" applyBorder="1" fontId="5" applyFont="1" fillId="0" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf xfId="0" numFmtId="1" applyNumberFormat="1" borderId="2" applyBorder="1" fontId="5" applyFont="1" fillId="0" applyAlignment="1">
+    <xf numFmtId="1" fontId="5" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf xfId="0" numFmtId="3" applyNumberFormat="1" borderId="2" applyBorder="1" fontId="3" applyFont="1" fillId="0" applyAlignment="1">
+    <xf numFmtId="3" fontId="3" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf xfId="0" numFmtId="0" borderId="2" applyBorder="1" fontId="3" applyFont="1" fillId="0" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf xfId="0" numFmtId="0" borderId="2" applyBorder="1" fontId="3" applyFont="1" fillId="0" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf xfId="0" numFmtId="1" applyNumberFormat="1" borderId="2" applyBorder="1" fontId="3" applyFont="1" fillId="0" applyAlignment="1">
+    <xf numFmtId="1" fontId="3" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf xfId="0" numFmtId="3" applyNumberFormat="1" borderId="0" fontId="0" fillId="0" applyAlignment="1">
+    <xf numFmtId="3" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf xfId="0" numFmtId="0" borderId="0" fontId="0" fillId="0" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf xfId="0" numFmtId="0" borderId="0" fontId="0" fillId="0" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf xfId="0" numFmtId="1" applyNumberFormat="1" borderId="0" fontId="0" fillId="0" applyAlignment="1">
+    <xf numFmtId="1" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle xfId="0" builtinId="0" name="Normal"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
   <extLst>
-    <ext uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
-      <x14ac:slicerStyles xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" defaultSlicerStyle="SlicerStyleLight1"/>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
     </ext>
   </extLst>
 </styleSheet>
@@ -564,10 +573,10 @@
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
-        <a:sysClr lastClr="000000" val="windowText"/>
+        <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
       <a:lt1>
-        <a:sysClr lastClr="FFFFFF" val="window"/>
+        <a:sysClr val="window" lastClr="FFFFFF"/>
       </a:lt1>
       <a:dk2>
         <a:srgbClr val="0E2841"/>
@@ -605,71 +614,71 @@
         <a:latin typeface="Cambria"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
-        <a:font typeface="ＭＳ Ｐゴシック" script="Jpan"/>
-        <a:font typeface="맑은 고딕" script="Hang"/>
-        <a:font typeface="宋体" script="Hans"/>
-        <a:font typeface="新細明體" script="Hant"/>
-        <a:font typeface="Times New Roman" script="Arab"/>
-        <a:font typeface="Times New Roman" script="Hebr"/>
-        <a:font typeface="Tahoma" script="Thai"/>
-        <a:font typeface="Nyala" script="Ethi"/>
-        <a:font typeface="Vrinda" script="Beng"/>
-        <a:font typeface="Shruti" script="Gujr"/>
-        <a:font typeface="MoolBoran" script="Khmr"/>
-        <a:font typeface="Tunga" script="Knda"/>
-        <a:font typeface="Raavi" script="Guru"/>
-        <a:font typeface="Euphemia" script="Cans"/>
-        <a:font typeface="Plantagenet Cherokee" script="Cher"/>
-        <a:font typeface="Microsoft Yi Baiti" script="Yiii"/>
-        <a:font typeface="Microsoft Himalaya" script="Tibt"/>
-        <a:font typeface="MV Boli" script="Thaa"/>
-        <a:font typeface="Mangal" script="Deva"/>
-        <a:font typeface="Gautami" script="Telu"/>
-        <a:font typeface="Latha" script="Taml"/>
-        <a:font typeface="Estrangelo Edessa" script="Syrc"/>
-        <a:font typeface="Kalinga" script="Orya"/>
-        <a:font typeface="Kartika" script="Mlym"/>
-        <a:font typeface="DokChampa" script="Laoo"/>
-        <a:font typeface="Iskoola Pota" script="Sinh"/>
-        <a:font typeface="Mongolian Baiti" script="Mong"/>
-        <a:font typeface="Times New Roman" script="Viet"/>
-        <a:font typeface="Microsoft Uighur" script="Uigh"/>
-        <a:font typeface="Sylfaen" script="Geor"/>
+        <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
+        <a:font script="Hang" typeface="맑은 고딕"/>
+        <a:font script="Hans" typeface="宋体"/>
+        <a:font script="Hant" typeface="新細明體"/>
+        <a:font script="Arab" typeface="Times New Roman"/>
+        <a:font script="Hebr" typeface="Times New Roman"/>
+        <a:font script="Thai" typeface="Tahoma"/>
+        <a:font script="Ethi" typeface="Nyala"/>
+        <a:font script="Beng" typeface="Vrinda"/>
+        <a:font script="Gujr" typeface="Shruti"/>
+        <a:font script="Khmr" typeface="MoolBoran"/>
+        <a:font script="Knda" typeface="Tunga"/>
+        <a:font script="Guru" typeface="Raavi"/>
+        <a:font script="Cans" typeface="Euphemia"/>
+        <a:font script="Cher" typeface="Plantagenet Cherokee"/>
+        <a:font script="Yiii" typeface="Microsoft Yi Baiti"/>
+        <a:font script="Tibt" typeface="Microsoft Himalaya"/>
+        <a:font script="Thaa" typeface="MV Boli"/>
+        <a:font script="Deva" typeface="Mangal"/>
+        <a:font script="Telu" typeface="Gautami"/>
+        <a:font script="Taml" typeface="Latha"/>
+        <a:font script="Syrc" typeface="Estrangelo Edessa"/>
+        <a:font script="Orya" typeface="Kalinga"/>
+        <a:font script="Mlym" typeface="Kartika"/>
+        <a:font script="Laoo" typeface="DokChampa"/>
+        <a:font script="Sinh" typeface="Iskoola Pota"/>
+        <a:font script="Mong" typeface="Mongolian Baiti"/>
+        <a:font script="Viet" typeface="Times New Roman"/>
+        <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
         <a:latin typeface="Calibri"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
-        <a:font typeface="ＭＳ Ｐゴシック" script="Jpan"/>
-        <a:font typeface="맑은 고딕" script="Hang"/>
-        <a:font typeface="宋体" script="Hans"/>
-        <a:font typeface="新細明體" script="Hant"/>
-        <a:font typeface="Arial" script="Arab"/>
-        <a:font typeface="Arial" script="Hebr"/>
-        <a:font typeface="Tahoma" script="Thai"/>
-        <a:font typeface="Nyala" script="Ethi"/>
-        <a:font typeface="Vrinda" script="Beng"/>
-        <a:font typeface="Shruti" script="Gujr"/>
-        <a:font typeface="DaunPenh" script="Khmr"/>
-        <a:font typeface="Tunga" script="Knda"/>
-        <a:font typeface="Raavi" script="Guru"/>
-        <a:font typeface="Euphemia" script="Cans"/>
-        <a:font typeface="Plantagenet Cherokee" script="Cher"/>
-        <a:font typeface="Microsoft Yi Baiti" script="Yiii"/>
-        <a:font typeface="Microsoft Himalaya" script="Tibt"/>
-        <a:font typeface="MV Boli" script="Thaa"/>
-        <a:font typeface="Mangal" script="Deva"/>
-        <a:font typeface="Gautami" script="Telu"/>
-        <a:font typeface="Latha" script="Taml"/>
-        <a:font typeface="Estrangelo Edessa" script="Syrc"/>
-        <a:font typeface="Kalinga" script="Orya"/>
-        <a:font typeface="Kartika" script="Mlym"/>
-        <a:font typeface="DokChampa" script="Laoo"/>
-        <a:font typeface="Iskoola Pota" script="Sinh"/>
-        <a:font typeface="Mongolian Baiti" script="Mong"/>
-        <a:font typeface="Arial" script="Viet"/>
-        <a:font typeface="Microsoft Uighur" script="Uigh"/>
-        <a:font typeface="Sylfaen" script="Geor"/>
+        <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
+        <a:font script="Hang" typeface="맑은 고딕"/>
+        <a:font script="Hans" typeface="宋体"/>
+        <a:font script="Hant" typeface="新細明體"/>
+        <a:font script="Arab" typeface="Arial"/>
+        <a:font script="Hebr" typeface="Arial"/>
+        <a:font script="Thai" typeface="Tahoma"/>
+        <a:font script="Ethi" typeface="Nyala"/>
+        <a:font script="Beng" typeface="Vrinda"/>
+        <a:font script="Gujr" typeface="Shruti"/>
+        <a:font script="Khmr" typeface="DaunPenh"/>
+        <a:font script="Knda" typeface="Tunga"/>
+        <a:font script="Guru" typeface="Raavi"/>
+        <a:font script="Cans" typeface="Euphemia"/>
+        <a:font script="Cher" typeface="Plantagenet Cherokee"/>
+        <a:font script="Yiii" typeface="Microsoft Yi Baiti"/>
+        <a:font script="Tibt" typeface="Microsoft Himalaya"/>
+        <a:font script="Thaa" typeface="MV Boli"/>
+        <a:font script="Deva" typeface="Mangal"/>
+        <a:font script="Telu" typeface="Gautami"/>
+        <a:font script="Taml" typeface="Latha"/>
+        <a:font script="Syrc" typeface="Estrangelo Edessa"/>
+        <a:font script="Orya" typeface="Kalinga"/>
+        <a:font script="Mlym" typeface="Kartika"/>
+        <a:font script="Laoo" typeface="DokChampa"/>
+        <a:font script="Sinh" typeface="Iskoola Pota"/>
+        <a:font script="Mong" typeface="Mongolian Baiti"/>
+        <a:font script="Viet" typeface="Arial"/>
+        <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -697,7 +706,7 @@
               </a:schemeClr>
             </a:gs>
           </a:gsLst>
-          <a:lin scaled="1" ang="16200000"/>
+          <a:lin ang="16200000" scaled="1"/>
         </a:gradFill>
         <a:gradFill rotWithShape="1">
           <a:gsLst>
@@ -720,11 +729,11 @@
               </a:schemeClr>
             </a:gs>
           </a:gsLst>
-          <a:lin scaled="1" ang="16200000"/>
+          <a:lin ang="16200000" scaled="1"/>
         </a:gradFill>
       </a:fillStyleLst>
       <a:lnStyleLst>
-        <a:ln algn="ctr" cmpd="sng" cap="flat" w="9525">
+        <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
           <a:solidFill>
             <a:schemeClr val="phClr">
               <a:shade val="9500"/>
@@ -733,13 +742,13 @@
           </a:solidFill>
           <a:prstDash val="solid"/>
         </a:ln>
-        <a:ln algn="ctr" cmpd="sng" cap="flat" w="25400">
+        <a:ln w="25400" cap="flat" cmpd="sng" algn="ctr">
           <a:solidFill>
             <a:schemeClr val="phClr"/>
           </a:solidFill>
           <a:prstDash val="solid"/>
         </a:ln>
-        <a:ln algn="ctr" cmpd="sng" cap="flat" w="38100">
+        <a:ln w="38100" cap="flat" cmpd="sng" algn="ctr">
           <a:solidFill>
             <a:schemeClr val="phClr"/>
           </a:solidFill>
@@ -749,7 +758,7 @@
       <a:effectStyleLst>
         <a:effectStyle>
           <a:effectLst>
-            <a:outerShdw dir="5400000" rotWithShape="0" dist="23000" blurRad="40000">
+            <a:outerShdw blurRad="40000" dist="23000" dir="5400000" rotWithShape="0">
               <a:srgbClr val="000000">
                 <a:alpha val="38000"/>
               </a:srgbClr>
@@ -758,7 +767,7 @@
         </a:effectStyle>
         <a:effectStyle>
           <a:effectLst>
-            <a:outerShdw dir="5400000" rotWithShape="0" dist="23000" blurRad="40000">
+            <a:outerShdw blurRad="40000" dist="23000" dir="5400000" rotWithShape="0">
               <a:srgbClr val="000000">
                 <a:alpha val="35000"/>
               </a:srgbClr>
@@ -767,7 +776,7 @@
         </a:effectStyle>
         <a:effectStyle>
           <a:effectLst>
-            <a:outerShdw dir="5400000" rotWithShape="0" dist="23000" blurRad="40000">
+            <a:outerShdw blurRad="40000" dist="23000" dir="5400000" rotWithShape="0">
               <a:srgbClr val="000000">
                 <a:alpha val="35000"/>
               </a:srgbClr>
@@ -775,10 +784,10 @@
           </a:effectLst>
           <a:scene3d>
             <a:camera prst="orthographicFront">
-              <a:rot rev="0" lon="0" lat="0"/>
+              <a:rot lat="0" lon="0" rev="0"/>
             </a:camera>
-            <a:lightRig dir="t" rig="threePt">
-              <a:rot rev="1200000" lon="0" lat="0"/>
+            <a:lightRig rig="threePt" dir="t">
+              <a:rot lat="0" lon="0" rev="1200000"/>
             </a:lightRig>
           </a:scene3d>
           <a:sp3d>
@@ -843,25 +852,27 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <sheetPr>
     <outlinePr summaryBelow="0"/>
   </sheetPr>
   <dimension ref="A1:F36"/>
   <sheetViews>
-    <sheetView workbookViewId="0" tabSelected="1"/>
+    <sheetView tabSelected="1" topLeftCell="A19" workbookViewId="0">
+      <selection activeCell="F25" sqref="F25"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" style="26" width="13.576428571428572" customWidth="1" bestFit="1"/>
-    <col min="2" max="2" style="27" width="18.14785714285714" customWidth="1" bestFit="1"/>
-    <col min="3" max="3" style="27" width="31.005" customWidth="1" bestFit="1"/>
-    <col min="4" max="4" style="28" width="19.862142857142857" customWidth="1" bestFit="1"/>
-    <col min="5" max="5" style="29" width="16.433571428571426" customWidth="1" bestFit="1"/>
-    <col min="6" max="6" style="27" width="28.290714285714284" customWidth="1" bestFit="1"/>
+    <col min="1" max="1" width="13.5546875" style="26" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="18.109375" style="18" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="31" style="18" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="19.88671875" style="27" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="16.44140625" style="28" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="28.33203125" style="18" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row x14ac:dyDescent="0.25" r="1" customHeight="1" ht="18.75" customFormat="1" s="1">
+    <row r="1" spans="1:6" s="1" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
@@ -881,7 +892,7 @@
         <v>5</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="2" customHeight="1" ht="18.75">
+    <row r="2" spans="1:6" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A2" s="6">
         <v>1</v>
       </c>
@@ -901,7 +912,7 @@
         <v>10</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="3" customHeight="1" ht="18.75">
+    <row r="3" spans="1:6" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A3" s="6">
         <v>2</v>
       </c>
@@ -921,7 +932,7 @@
         <v>12</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="4" customHeight="1" ht="18.75">
+    <row r="4" spans="1:6" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A4" s="6">
         <v>3</v>
       </c>
@@ -941,7 +952,7 @@
         <v>16</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="5" customHeight="1" ht="18.75">
+    <row r="5" spans="1:6" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A5" s="6">
         <v>4</v>
       </c>
@@ -961,7 +972,7 @@
         <v>22</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="6" customHeight="1" ht="18.75">
+    <row r="6" spans="1:6" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A6" s="6">
         <v>5</v>
       </c>
@@ -981,7 +992,7 @@
         <v>26</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="7" customHeight="1" ht="18.75">
+    <row r="7" spans="1:6" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A7" s="6">
         <v>6</v>
       </c>
@@ -1001,7 +1012,7 @@
         <v>28</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="8" customHeight="1" ht="18.75">
+    <row r="8" spans="1:6" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A8" s="6">
         <v>7</v>
       </c>
@@ -1021,7 +1032,7 @@
         <v>33</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="9" customHeight="1" ht="18.75">
+    <row r="9" spans="1:6" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A9" s="6">
         <v>8</v>
       </c>
@@ -1041,7 +1052,7 @@
         <v>37</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="10" customHeight="1" ht="18.75">
+    <row r="10" spans="1:6" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A10" s="6">
         <v>9</v>
       </c>
@@ -1061,7 +1072,7 @@
         <v>41</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="11" customHeight="1" ht="18.75">
+    <row r="11" spans="1:6" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A11" s="6">
         <v>10</v>
       </c>
@@ -1081,7 +1092,7 @@
         <v>43</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="12" customHeight="1" ht="18.75">
+    <row r="12" spans="1:6" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A12" s="6">
         <v>11</v>
       </c>
@@ -1101,7 +1112,7 @@
         <v>46</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="13" customHeight="1" ht="18.75">
+    <row r="13" spans="1:6" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A13" s="6">
         <v>12</v>
       </c>
@@ -1121,7 +1132,7 @@
         <v>50</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="14" customHeight="1" ht="18.75">
+    <row r="14" spans="1:6" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A14" s="6">
         <v>13</v>
       </c>
@@ -1141,7 +1152,7 @@
         <v>52</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="15" customHeight="1" ht="18.75">
+    <row r="15" spans="1:6" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A15" s="6">
         <v>14</v>
       </c>
@@ -1161,7 +1172,7 @@
         <v>55</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="16" customHeight="1" ht="18.75">
+    <row r="16" spans="1:6" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A16" s="6">
         <v>15</v>
       </c>
@@ -1181,7 +1192,7 @@
         <v>60</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="17" customHeight="1" ht="19.5">
+    <row r="17" spans="1:6" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A17" s="6">
         <v>16</v>
       </c>
@@ -1201,7 +1212,7 @@
         <v>62</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="18" customHeight="1" ht="19.5">
+    <row r="18" spans="1:6" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A18" s="6">
         <v>17</v>
       </c>
@@ -1221,7 +1232,7 @@
         <v>67</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="19" customHeight="1" ht="19.5">
+    <row r="19" spans="1:6" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A19" s="6">
         <v>18</v>
       </c>
@@ -1241,7 +1252,7 @@
         <v>71</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="20" customHeight="1" ht="19.5">
+    <row r="20" spans="1:6" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A20" s="6">
         <v>19</v>
       </c>
@@ -1261,7 +1272,7 @@
         <v>75</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="21" customHeight="1" ht="19.5">
+    <row r="21" spans="1:6" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A21" s="6">
         <v>20</v>
       </c>
@@ -1281,7 +1292,7 @@
         <v>79</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="22" customHeight="1" ht="19.5">
+    <row r="22" spans="1:6" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A22" s="6">
         <v>21</v>
       </c>
@@ -1301,7 +1312,7 @@
         <v>81</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="23" customHeight="1" ht="19.5">
+    <row r="23" spans="1:6" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A23" s="6">
         <v>22</v>
       </c>
@@ -1321,7 +1332,7 @@
         <v>85</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="24" customHeight="1" ht="19.5">
+    <row r="24" spans="1:6" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A24" s="6">
         <v>23</v>
       </c>
@@ -1341,7 +1352,7 @@
         <v>89</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="25" customHeight="1" ht="19.5">
+    <row r="25" spans="1:6" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A25" s="14">
         <v>24</v>
       </c>
@@ -1355,9 +1366,11 @@
       <c r="E25" s="9" t="s">
         <v>92</v>
       </c>
-      <c r="F25" s="10"/>
-    </row>
-    <row x14ac:dyDescent="0.25" r="26" customHeight="1" ht="19.5">
+      <c r="F25" s="10" t="s">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="26" spans="1:6" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A26" s="14">
         <v>25</v>
       </c>
@@ -1377,7 +1390,7 @@
         <v>96</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="27" customHeight="1" ht="19.5">
+    <row r="27" spans="1:6" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A27" s="14">
         <v>26</v>
       </c>
@@ -1391,7 +1404,7 @@
       <c r="E27" s="15"/>
       <c r="F27" s="10"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="28" customHeight="1" ht="19.5">
+    <row r="28" spans="1:6" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A28" s="14">
         <v>27</v>
       </c>
@@ -1407,7 +1420,7 @@
         <v>99</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="29" customHeight="1" ht="20.25">
+    <row r="29" spans="1:6" ht="20.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A29" s="14">
         <v>28</v>
       </c>
@@ -1425,7 +1438,7 @@
         <v>101</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="30" customHeight="1" ht="19.5">
+    <row r="30" spans="1:6" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A30" s="17">
         <v>29</v>
       </c>
@@ -1445,7 +1458,7 @@
         <v>103</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="31" customHeight="1" ht="19.5">
+    <row r="31" spans="1:6" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A31" s="17">
         <v>30</v>
       </c>
@@ -1465,7 +1478,7 @@
         <v>107</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="32" customHeight="1" ht="33.75">
+    <row r="32" spans="1:6" ht="33.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A32" s="17">
         <v>31</v>
       </c>
@@ -1485,31 +1498,22 @@
         <v>114</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="33" customHeight="1" ht="18.75">
+    <row r="33" spans="1:6" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A33" s="19"/>
-      <c r="B33" s="18"/>
-      <c r="C33" s="18"/>
       <c r="D33" s="20"/>
       <c r="E33" s="21"/>
-      <c r="F33" s="18"/>
-    </row>
-    <row x14ac:dyDescent="0.25" r="34" customHeight="1" ht="18.75">
+    </row>
+    <row r="34" spans="1:6" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A34" s="19"/>
-      <c r="B34" s="18"/>
-      <c r="C34" s="18"/>
       <c r="D34" s="20"/>
       <c r="E34" s="21"/>
-      <c r="F34" s="18"/>
-    </row>
-    <row x14ac:dyDescent="0.25" r="35" customHeight="1" ht="18.75">
+    </row>
+    <row r="35" spans="1:6" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A35" s="19"/>
-      <c r="B35" s="18"/>
-      <c r="C35" s="18"/>
       <c r="D35" s="20"/>
       <c r="E35" s="21"/>
-      <c r="F35" s="18"/>
-    </row>
-    <row x14ac:dyDescent="0.25" r="36" customHeight="1" ht="18.75">
+    </row>
+    <row r="36" spans="1:6" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A36" s="22"/>
       <c r="B36" s="23"/>
       <c r="C36" s="23"/>
